--- a/tests/data/olink/olink_assay_combined.xlsx
+++ b/tests/data/olink/olink_assay_combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priti/Documents/Projects/CIDC/assay/olink/cidc_example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/tests/data/olink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D572576C-0D7A-5446-9800-08A4A242CC54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06260B4D-92FF-4B44-A949-83AAFE9331DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66400" yWindow="5080" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPX Data" sheetId="1" r:id="rId1"/>
@@ -880,46 +880,46 @@
     <t>OID00562</t>
   </si>
   <si>
-    <t>HD_59</t>
-  </si>
-  <si>
     <t>HIMC_CART_DEP_CHEAR12122017_Ct.csv</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>HD_63</t>
-  </si>
-  <si>
     <t>Warning</t>
   </si>
   <si>
-    <t>HD_32</t>
-  </si>
-  <si>
-    <t>HD_50</t>
-  </si>
-  <si>
     <t>LOD</t>
   </si>
   <si>
     <t>Missing Data freq.</t>
   </si>
   <si>
-    <t>HD_71</t>
-  </si>
-  <si>
-    <t>HD_72</t>
-  </si>
-  <si>
-    <t>HD_73</t>
-  </si>
-  <si>
-    <t>HD_80</t>
-  </si>
-  <si>
-    <t>HD_85</t>
+    <t>CM-TEST-PA01-A1</t>
+  </si>
+  <si>
+    <t>CM-TEST-PA02-A1</t>
+  </si>
+  <si>
+    <t>CM-TEST-PA03-A1</t>
+  </si>
+  <si>
+    <t>CM-TEST-PA04-A1</t>
+  </si>
+  <si>
+    <t>CM-TEST-PA05-A1</t>
+  </si>
+  <si>
+    <t>CM-TEST-PA06-A1</t>
+  </si>
+  <si>
+    <t>CM-TEST-PA07-A1</t>
+  </si>
+  <si>
+    <t>CM-TEST-PA08-A1</t>
+  </si>
+  <si>
+    <t>CM-TEST-PA09-A1</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1301,7 @@
   <dimension ref="A1:CQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="9" spans="1:95" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B9" s="9">
         <v>6.4387400000000001</v>
@@ -2831,15 +2831,15 @@
         <v>6.1181400000000004</v>
       </c>
       <c r="CP9" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ9" s="10" t="s">
         <v>287</v>
-      </c>
-      <c r="CQ9" s="10" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:95" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B10" s="4">
         <v>7.4578600000000002</v>
@@ -3115,15 +3115,15 @@
         <v>6.0998099999999997</v>
       </c>
       <c r="CP10" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CQ10" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:95" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B11" s="9">
         <v>5.3890399999999996</v>
@@ -3399,15 +3399,15 @@
         <v>5.9447799999999997</v>
       </c>
       <c r="CP11" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ11" s="10" t="s">
         <v>287</v>
-      </c>
-      <c r="CQ11" s="10" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:95" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B12" s="9">
         <v>10.158770000000001</v>
@@ -3683,10 +3683,10 @@
         <v>5.9912700000000001</v>
       </c>
       <c r="CP12" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ12" s="10" t="s">
         <v>287</v>
-      </c>
-      <c r="CQ12" s="10" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
@@ -3967,10 +3967,10 @@
         <v>6.1181400000000004</v>
       </c>
       <c r="CP13" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ13" t="s">
         <v>287</v>
-      </c>
-      <c r="CQ13" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
@@ -4251,10 +4251,10 @@
         <v>6.0998099999999997</v>
       </c>
       <c r="CP14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CQ14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
@@ -4535,10 +4535,10 @@
         <v>5.9447799999999997</v>
       </c>
       <c r="CP15" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ15" t="s">
         <v>287</v>
-      </c>
-      <c r="CQ15" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
@@ -4819,10 +4819,10 @@
         <v>5.9912700000000001</v>
       </c>
       <c r="CP16" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ16" t="s">
         <v>287</v>
-      </c>
-      <c r="CQ16" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:95" x14ac:dyDescent="0.2">
@@ -5103,10 +5103,10 @@
         <v>5.9912700000000001</v>
       </c>
       <c r="CP17" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ17" t="s">
         <v>287</v>
-      </c>
-      <c r="CQ17" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:95" x14ac:dyDescent="0.2">
@@ -5114,7 +5114,7 @@
     </row>
     <row r="19" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B19" s="2">
         <v>1.2452799999999999</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="20" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>

--- a/tests/data/olink/olink_assay_combined.xlsx
+++ b/tests/data/olink/olink_assay_combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/tests/data/olink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06260B4D-92FF-4B44-A949-83AAFE9331DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B4771A-A724-DC4D-BCB0-01C40F01484F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPX Data" sheetId="1" r:id="rId1"/>
@@ -895,31 +895,31 @@
     <t>Missing Data freq.</t>
   </si>
   <si>
-    <t>CM-TEST-PA01-A1</t>
-  </si>
-  <si>
-    <t>CM-TEST-PA02-A1</t>
-  </si>
-  <si>
-    <t>CM-TEST-PA03-A1</t>
-  </si>
-  <si>
-    <t>CM-TEST-PA04-A1</t>
-  </si>
-  <si>
-    <t>CM-TEST-PA05-A1</t>
-  </si>
-  <si>
-    <t>CM-TEST-PA06-A1</t>
-  </si>
-  <si>
-    <t>CM-TEST-PA07-A1</t>
-  </si>
-  <si>
-    <t>CM-TEST-PA08-A1</t>
-  </si>
-  <si>
-    <t>CM-TEST-PA09-A1</t>
+    <t>CTTTP01A1.00</t>
+  </si>
+  <si>
+    <t>CTTTP02A1.00</t>
+  </si>
+  <si>
+    <t>CTTTP03A1.00</t>
+  </si>
+  <si>
+    <t>CTTTP04A1.00</t>
+  </si>
+  <si>
+    <t>CTTTP05A1.00</t>
+  </si>
+  <si>
+    <t>CTTTP06A1.00</t>
+  </si>
+  <si>
+    <t>CTTTP07A1.00</t>
+  </si>
+  <si>
+    <t>CTTTP08A1.00</t>
+  </si>
+  <si>
+    <t>CTTTP09A1.00</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -942,6 +942,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -980,10 +990,10 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,7 +1311,7 @@
   <dimension ref="A1:CQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2553,292 +2563,292 @@
       <c r="CN7" s="1"/>
       <c r="CO7" s="1"/>
     </row>
-    <row r="9" spans="1:95" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:95" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>6.4387400000000001</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>7.7643800000000001</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>1.9384999999999999</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>1.77817</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>1.77803</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>5.2982699999999996</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>2.4704299999999999</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>8.6819199999999999</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>6.3011900000000001</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>9.2125000000000004</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>1.5348999999999999</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>1.8754200000000001</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>8.8018300000000007</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <v>1.0474699999999999</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <v>10.738099999999999</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="8">
         <v>3.3330899999999999</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <v>6.4995399999999997</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="10">
         <v>0.96518000000000004</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="8">
         <v>6.5210900000000001</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="8">
         <v>5.77949</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="10">
         <v>1.67276</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="10">
         <v>-0.73333000000000004</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="8">
         <v>2.19055</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="10">
         <v>1.7403200000000001</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AA9" s="8">
         <v>9.4390900000000002</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AB9" s="10">
         <v>1.9816100000000001</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AC9" s="8">
         <v>5.125</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AD9" s="8">
         <v>3.86171</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AE9" s="8">
         <v>9.2259399999999996</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AF9" s="8">
         <v>6.1543000000000001</v>
       </c>
-      <c r="AG9" s="9">
+      <c r="AG9" s="8">
         <v>2.18147</v>
       </c>
-      <c r="AH9" s="9">
+      <c r="AH9" s="8">
         <v>2.0533700000000001</v>
       </c>
-      <c r="AI9" s="9">
+      <c r="AI9" s="8">
         <v>5.06616</v>
       </c>
-      <c r="AJ9" s="9">
+      <c r="AJ9" s="8">
         <v>8.0668900000000008</v>
       </c>
-      <c r="AK9" s="9">
+      <c r="AK9" s="8">
         <v>3.88645</v>
       </c>
-      <c r="AL9" s="11">
+      <c r="AL9" s="10">
         <v>1.6230800000000001</v>
       </c>
-      <c r="AM9" s="11">
+      <c r="AM9" s="10">
         <v>0.37853999999999999</v>
       </c>
-      <c r="AN9" s="11">
+      <c r="AN9" s="10">
         <v>1.2237499999999999</v>
       </c>
-      <c r="AO9" s="9">
+      <c r="AO9" s="8">
         <v>12.87785</v>
       </c>
-      <c r="AP9" s="9">
+      <c r="AP9" s="8">
         <v>2.0110899999999998</v>
       </c>
-      <c r="AQ9" s="9">
+      <c r="AQ9" s="8">
         <v>2.9211800000000001</v>
       </c>
-      <c r="AR9" s="9">
+      <c r="AR9" s="8">
         <v>8.3821300000000001</v>
       </c>
-      <c r="AS9" s="11">
+      <c r="AS9" s="10">
         <v>0.33593000000000001</v>
       </c>
-      <c r="AT9" s="9">
+      <c r="AT9" s="8">
         <v>6.1241700000000003</v>
       </c>
-      <c r="AU9" s="11">
+      <c r="AU9" s="10">
         <v>2.3804400000000001</v>
       </c>
-      <c r="AV9" s="9">
+      <c r="AV9" s="8">
         <v>5.7891199999999996</v>
       </c>
-      <c r="AW9" s="9">
+      <c r="AW9" s="8">
         <v>3.5987300000000002</v>
       </c>
-      <c r="AX9" s="9">
+      <c r="AX9" s="8">
         <v>0.76132</v>
       </c>
-      <c r="AY9" s="9">
+      <c r="AY9" s="8">
         <v>10.151160000000001</v>
       </c>
-      <c r="AZ9" s="9">
+      <c r="AZ9" s="8">
         <v>4.2210900000000002</v>
       </c>
-      <c r="BA9" s="9">
+      <c r="BA9" s="8">
         <v>6.39133</v>
       </c>
-      <c r="BB9" s="9">
+      <c r="BB9" s="8">
         <v>2.5594700000000001</v>
       </c>
-      <c r="BC9" s="11">
+      <c r="BC9" s="10">
         <v>2.3016700000000001</v>
       </c>
-      <c r="BD9" s="11">
+      <c r="BD9" s="10">
         <v>1.32935</v>
       </c>
-      <c r="BE9" s="11">
+      <c r="BE9" s="10">
         <v>1.3167599999999999</v>
       </c>
-      <c r="BF9" s="9">
+      <c r="BF9" s="8">
         <v>5.8815200000000001</v>
       </c>
-      <c r="BG9" s="9">
+      <c r="BG9" s="8">
         <v>1.7818000000000001</v>
       </c>
-      <c r="BH9" s="11">
+      <c r="BH9" s="10">
         <v>0.92159000000000002</v>
       </c>
-      <c r="BI9" s="9">
+      <c r="BI9" s="8">
         <v>8.6255299999999995</v>
       </c>
-      <c r="BJ9" s="9">
+      <c r="BJ9" s="8">
         <v>3.6226099999999999</v>
       </c>
-      <c r="BK9" s="9">
+      <c r="BK9" s="8">
         <v>3.3412899999999999</v>
       </c>
-      <c r="BL9" s="9">
+      <c r="BL9" s="8">
         <v>7.8892699999999998</v>
       </c>
-      <c r="BM9" s="9">
+      <c r="BM9" s="8">
         <v>7.5370699999999999</v>
       </c>
-      <c r="BN9" s="9">
+      <c r="BN9" s="8">
         <v>8.1574399999999994</v>
       </c>
-      <c r="BO9" s="9">
+      <c r="BO9" s="8">
         <v>5.4050399999999996</v>
       </c>
-      <c r="BP9" s="11">
+      <c r="BP9" s="10">
         <v>0.99180999999999997</v>
       </c>
-      <c r="BQ9" s="9">
+      <c r="BQ9" s="8">
         <v>3.26674</v>
       </c>
-      <c r="BR9" s="11">
+      <c r="BR9" s="10">
         <v>1.1291800000000001</v>
       </c>
-      <c r="BS9" s="9">
+      <c r="BS9" s="8">
         <v>7.2224899999999996</v>
       </c>
-      <c r="BT9" s="9">
+      <c r="BT9" s="8">
         <v>2.0033500000000002</v>
       </c>
-      <c r="BU9" s="9">
+      <c r="BU9" s="8">
         <v>10.31466</v>
       </c>
-      <c r="BV9" s="11">
+      <c r="BV9" s="10">
         <v>1.8282700000000001</v>
       </c>
-      <c r="BW9" s="11">
+      <c r="BW9" s="10">
         <v>0.92803000000000002</v>
       </c>
-      <c r="BX9" s="9">
+      <c r="BX9" s="8">
         <v>8.5428599999999992</v>
       </c>
-      <c r="BY9" s="11">
+      <c r="BY9" s="10">
         <v>1.1127899999999999</v>
       </c>
-      <c r="BZ9" s="11">
+      <c r="BZ9" s="10">
         <v>0.83070999999999995</v>
       </c>
-      <c r="CA9" s="11">
+      <c r="CA9" s="10">
         <v>0.71570999999999996</v>
       </c>
-      <c r="CB9" s="9">
+      <c r="CB9" s="8">
         <v>7.0763699999999998</v>
       </c>
-      <c r="CC9" s="9">
+      <c r="CC9" s="8">
         <v>3.5434899999999998</v>
       </c>
-      <c r="CD9" s="9">
+      <c r="CD9" s="8">
         <v>4.9920600000000004</v>
       </c>
-      <c r="CE9" s="9">
+      <c r="CE9" s="8">
         <v>4.4337400000000002</v>
       </c>
-      <c r="CF9" s="9">
+      <c r="CF9" s="8">
         <v>4.9620100000000003</v>
       </c>
-      <c r="CG9" s="9">
+      <c r="CG9" s="8">
         <v>1.5863499999999999</v>
       </c>
-      <c r="CH9" s="9">
+      <c r="CH9" s="8">
         <v>8.5894700000000004</v>
       </c>
-      <c r="CI9" s="9">
+      <c r="CI9" s="8">
         <v>4.40456</v>
       </c>
-      <c r="CJ9" s="9">
+      <c r="CJ9" s="8">
         <v>3.7540300000000002</v>
       </c>
-      <c r="CK9" s="9">
+      <c r="CK9" s="8">
         <v>4.7169299999999996</v>
       </c>
-      <c r="CL9" s="11">
+      <c r="CL9" s="10">
         <v>1.7406600000000001</v>
       </c>
-      <c r="CM9" s="9">
+      <c r="CM9" s="8">
         <v>3.06474</v>
       </c>
-      <c r="CN9" s="9">
+      <c r="CN9" s="8">
         <v>3.4742899999999999</v>
       </c>
-      <c r="CO9" s="9">
+      <c r="CO9" s="8">
         <v>6.1181400000000004</v>
       </c>
-      <c r="CP9" s="10" t="s">
+      <c r="CP9" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="CQ9" s="10" t="s">
+      <c r="CQ9" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:95" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:95" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>292</v>
       </c>
       <c r="B10" s="4">
@@ -3114,583 +3124,583 @@
       <c r="CO10" s="4">
         <v>6.0998099999999997</v>
       </c>
-      <c r="CP10" s="10" t="s">
+      <c r="CP10" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="CQ10" s="10" t="s">
+      <c r="CQ10" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:95" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:95" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>5.3890399999999996</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>8.0275999999999996</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>1.64015</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>1.77817</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>1.5354699999999999</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>5.6791499999999999</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>4.5099400000000003</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>8.6995000000000005</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>7.5098700000000003</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>9.2407800000000009</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>1.99051</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>1.5549299999999999</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="8">
         <v>8.1010600000000004</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="10">
         <v>1.0474699999999999</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="8">
         <v>8.6572800000000001</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="8">
         <v>7.39635</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="8">
         <v>6.5392099999999997</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="10">
         <v>0.96518000000000004</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="8">
         <v>5.6234900000000003</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="8">
         <v>5.19747</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="10">
         <v>1.67276</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="10">
         <v>-0.73333000000000004</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y11" s="8">
         <v>1.1449800000000001</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="10">
         <v>1.7403200000000001</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AA11" s="8">
         <v>9.2596299999999996</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AB11" s="10">
         <v>1.9816100000000001</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AC11" s="8">
         <v>5.0481600000000002</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AD11" s="8">
         <v>3.5706799999999999</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AE11" s="8">
         <v>8.8241099999999992</v>
       </c>
-      <c r="AF11" s="9">
+      <c r="AF11" s="8">
         <v>6.5130800000000004</v>
       </c>
-      <c r="AG11" s="9">
+      <c r="AG11" s="8">
         <v>1.70407</v>
       </c>
-      <c r="AH11" s="9">
+      <c r="AH11" s="8">
         <v>1.5643199999999999</v>
       </c>
-      <c r="AI11" s="9">
+      <c r="AI11" s="8">
         <v>4.62066</v>
       </c>
-      <c r="AJ11" s="9">
+      <c r="AJ11" s="8">
         <v>6.0664400000000001</v>
       </c>
-      <c r="AK11" s="9">
+      <c r="AK11" s="8">
         <v>4.3881899999999998</v>
       </c>
-      <c r="AL11" s="9">
+      <c r="AL11" s="8">
         <v>1.6679999999999999</v>
       </c>
-      <c r="AM11" s="9">
+      <c r="AM11" s="8">
         <v>0.49991000000000002</v>
       </c>
-      <c r="AN11" s="11">
+      <c r="AN11" s="10">
         <v>1.2237499999999999</v>
       </c>
-      <c r="AO11" s="9">
+      <c r="AO11" s="8">
         <v>14.24718</v>
       </c>
-      <c r="AP11" s="9">
+      <c r="AP11" s="8">
         <v>1.64514</v>
       </c>
-      <c r="AQ11" s="9">
+      <c r="AQ11" s="8">
         <v>2.5803699999999998</v>
       </c>
-      <c r="AR11" s="9">
+      <c r="AR11" s="8">
         <v>7.4511900000000004</v>
       </c>
-      <c r="AS11" s="9">
+      <c r="AS11" s="8">
         <v>0.42118</v>
       </c>
-      <c r="AT11" s="9">
+      <c r="AT11" s="8">
         <v>5.1055000000000001</v>
       </c>
-      <c r="AU11" s="11">
+      <c r="AU11" s="10">
         <v>2.3804400000000001</v>
       </c>
-      <c r="AV11" s="9">
+      <c r="AV11" s="8">
         <v>5.0037399999999996</v>
       </c>
-      <c r="AW11" s="9">
+      <c r="AW11" s="8">
         <v>3.4083899999999998</v>
       </c>
-      <c r="AX11" s="9">
+      <c r="AX11" s="8">
         <v>1.0848</v>
       </c>
-      <c r="AY11" s="9">
+      <c r="AY11" s="8">
         <v>12.60385</v>
       </c>
-      <c r="AZ11" s="9">
+      <c r="AZ11" s="8">
         <v>4.0495000000000001</v>
       </c>
-      <c r="BA11" s="9">
+      <c r="BA11" s="8">
         <v>6.5603400000000001</v>
       </c>
-      <c r="BB11" s="9">
+      <c r="BB11" s="8">
         <v>2.0788799999999998</v>
       </c>
-      <c r="BC11" s="11">
+      <c r="BC11" s="10">
         <v>2.3016700000000001</v>
       </c>
-      <c r="BD11" s="11">
+      <c r="BD11" s="10">
         <v>1.32935</v>
       </c>
-      <c r="BE11" s="11">
+      <c r="BE11" s="10">
         <v>1.3167599999999999</v>
       </c>
-      <c r="BF11" s="9">
+      <c r="BF11" s="8">
         <v>5.7244900000000003</v>
       </c>
-      <c r="BG11" s="9">
+      <c r="BG11" s="8">
         <v>2.21645</v>
       </c>
-      <c r="BH11" s="11">
+      <c r="BH11" s="10">
         <v>0.92159000000000002</v>
       </c>
-      <c r="BI11" s="9">
+      <c r="BI11" s="8">
         <v>6.7986000000000004</v>
       </c>
-      <c r="BJ11" s="9">
+      <c r="BJ11" s="8">
         <v>4.2192499999999997</v>
       </c>
-      <c r="BK11" s="9">
+      <c r="BK11" s="8">
         <v>3.0885799999999999</v>
       </c>
-      <c r="BL11" s="9">
+      <c r="BL11" s="8">
         <v>6.6686100000000001</v>
       </c>
-      <c r="BM11" s="9">
+      <c r="BM11" s="8">
         <v>8.3308599999999995</v>
       </c>
-      <c r="BN11" s="9">
+      <c r="BN11" s="8">
         <v>7.6117800000000004</v>
       </c>
-      <c r="BO11" s="9">
+      <c r="BO11" s="8">
         <v>9.0845699999999994</v>
       </c>
-      <c r="BP11" s="11">
+      <c r="BP11" s="10">
         <v>0.99180999999999997</v>
       </c>
-      <c r="BQ11" s="9">
+      <c r="BQ11" s="8">
         <v>6.4739800000000001</v>
       </c>
-      <c r="BR11" s="9">
+      <c r="BR11" s="8">
         <v>1.50126</v>
       </c>
-      <c r="BS11" s="9">
+      <c r="BS11" s="8">
         <v>6.65564</v>
       </c>
-      <c r="BT11" s="9">
+      <c r="BT11" s="8">
         <v>2.8513899999999999</v>
       </c>
-      <c r="BU11" s="9">
+      <c r="BU11" s="8">
         <v>11.17624</v>
       </c>
-      <c r="BV11" s="11">
+      <c r="BV11" s="10">
         <v>1.8282700000000001</v>
       </c>
-      <c r="BW11" s="11">
+      <c r="BW11" s="10">
         <v>0.92803000000000002</v>
       </c>
-      <c r="BX11" s="9">
+      <c r="BX11" s="8">
         <v>7.9254499999999997</v>
       </c>
-      <c r="BY11" s="11">
+      <c r="BY11" s="10">
         <v>1.1127899999999999</v>
       </c>
-      <c r="BZ11" s="11">
+      <c r="BZ11" s="10">
         <v>0.83070999999999995</v>
       </c>
-      <c r="CA11" s="11">
+      <c r="CA11" s="10">
         <v>0.71570999999999996</v>
       </c>
-      <c r="CB11" s="9">
+      <c r="CB11" s="8">
         <v>8.8757099999999998</v>
       </c>
-      <c r="CC11" s="9">
+      <c r="CC11" s="8">
         <v>3.8277399999999999</v>
       </c>
-      <c r="CD11" s="9">
+      <c r="CD11" s="8">
         <v>4.0646599999999999</v>
       </c>
-      <c r="CE11" s="9">
+      <c r="CE11" s="8">
         <v>4.6546200000000004</v>
       </c>
-      <c r="CF11" s="9">
+      <c r="CF11" s="8">
         <v>4.7480599999999997</v>
       </c>
-      <c r="CG11" s="9">
+      <c r="CG11" s="8">
         <v>1.39032</v>
       </c>
-      <c r="CH11" s="9">
+      <c r="CH11" s="8">
         <v>8.7408900000000003</v>
       </c>
-      <c r="CI11" s="9">
+      <c r="CI11" s="8">
         <v>5.4637700000000002</v>
       </c>
-      <c r="CJ11" s="9">
+      <c r="CJ11" s="8">
         <v>5.5136500000000002</v>
       </c>
-      <c r="CK11" s="9">
+      <c r="CK11" s="8">
         <v>8.0868500000000001</v>
       </c>
-      <c r="CL11" s="9">
+      <c r="CL11" s="8">
         <v>2.0654499999999998</v>
       </c>
-      <c r="CM11" s="9">
+      <c r="CM11" s="8">
         <v>3.9321600000000001</v>
       </c>
-      <c r="CN11" s="9">
+      <c r="CN11" s="8">
         <v>2.5042300000000002</v>
       </c>
-      <c r="CO11" s="9">
+      <c r="CO11" s="8">
         <v>5.9447799999999997</v>
       </c>
-      <c r="CP11" s="10" t="s">
+      <c r="CP11" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="CQ11" s="10" t="s">
+      <c r="CQ11" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:95" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:95" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>10.158770000000001</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>7.4727499999999996</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>7.4537000000000004</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>7.3738299999999999</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>5.9239600000000001</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>7.4272499999999999</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>6.1239100000000004</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>8.5286899999999992</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>6.2963199999999997</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>8.7127300000000005</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>10.038259999999999</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>8.3004899999999999</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <v>9.3532299999999999</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <v>6.5704200000000004</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="8">
         <v>9.1646699999999992</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <v>6.2262199999999996</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <v>7.17774</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <v>6.3941800000000004</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="8">
         <v>6.9149000000000003</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="8">
         <v>5.8858800000000002</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="8">
         <v>7.5102500000000001</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="8">
         <v>3.80145</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="8">
         <v>4.8563599999999996</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="8">
         <v>5.9795199999999999</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="8">
         <v>9.2229299999999999</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="8">
         <v>9.2211099999999995</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AC12" s="8">
         <v>8.3966899999999995</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="8">
         <v>7.4177499999999998</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AE12" s="8">
         <v>8.1916600000000006</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AF12" s="8">
         <v>6.0623300000000002</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AG12" s="8">
         <v>9.1206700000000005</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AH12" s="8">
         <v>6.2064899999999996</v>
       </c>
-      <c r="AI12" s="9">
+      <c r="AI12" s="8">
         <v>3.12277</v>
       </c>
-      <c r="AJ12" s="9">
+      <c r="AJ12" s="8">
         <v>7.13347</v>
       </c>
-      <c r="AK12" s="9">
+      <c r="AK12" s="8">
         <v>5.5058299999999996</v>
       </c>
-      <c r="AL12" s="9">
+      <c r="AL12" s="8">
         <v>6.57064</v>
       </c>
-      <c r="AM12" s="9">
+      <c r="AM12" s="8">
         <v>5.57456</v>
       </c>
-      <c r="AN12" s="9">
+      <c r="AN12" s="8">
         <v>5.6974900000000002</v>
       </c>
-      <c r="AO12" s="9">
+      <c r="AO12" s="8">
         <v>10.532019999999999</v>
       </c>
-      <c r="AP12" s="9">
+      <c r="AP12" s="8">
         <v>4.6502100000000004</v>
       </c>
-      <c r="AQ12" s="9">
+      <c r="AQ12" s="8">
         <v>5.2417499999999997</v>
       </c>
-      <c r="AR12" s="9">
+      <c r="AR12" s="8">
         <v>7.7904299999999997</v>
       </c>
-      <c r="AS12" s="9">
+      <c r="AS12" s="8">
         <v>4.2834199999999996</v>
       </c>
-      <c r="AT12" s="9">
+      <c r="AT12" s="8">
         <v>6.7729100000000004</v>
       </c>
-      <c r="AU12" s="9">
+      <c r="AU12" s="8">
         <v>8.7543600000000001</v>
       </c>
-      <c r="AV12" s="9">
+      <c r="AV12" s="8">
         <v>6.0541999999999998</v>
       </c>
-      <c r="AW12" s="9">
+      <c r="AW12" s="8">
         <v>8.0451899999999998</v>
       </c>
-      <c r="AX12" s="9">
+      <c r="AX12" s="8">
         <v>5.39635</v>
       </c>
-      <c r="AY12" s="9">
+      <c r="AY12" s="8">
         <v>10.5456</v>
       </c>
-      <c r="AZ12" s="9">
+      <c r="AZ12" s="8">
         <v>7.3565100000000001</v>
       </c>
-      <c r="BA12" s="9">
+      <c r="BA12" s="8">
         <v>6.7207600000000003</v>
       </c>
-      <c r="BB12" s="9">
+      <c r="BB12" s="8">
         <v>3.4305500000000002</v>
       </c>
-      <c r="BC12" s="9">
+      <c r="BC12" s="8">
         <v>9.7064699999999995</v>
       </c>
-      <c r="BD12" s="9">
+      <c r="BD12" s="8">
         <v>6.1847399999999997</v>
       </c>
-      <c r="BE12" s="9">
+      <c r="BE12" s="8">
         <v>5.1341099999999997</v>
       </c>
-      <c r="BF12" s="9">
+      <c r="BF12" s="8">
         <v>5.9257099999999996</v>
       </c>
-      <c r="BG12" s="9">
+      <c r="BG12" s="8">
         <v>6.2577100000000003</v>
       </c>
-      <c r="BH12" s="9">
+      <c r="BH12" s="8">
         <v>7.2429300000000003</v>
       </c>
-      <c r="BI12" s="9">
+      <c r="BI12" s="8">
         <v>7.8703099999999999</v>
       </c>
-      <c r="BJ12" s="9">
+      <c r="BJ12" s="8">
         <v>5.3787099999999999</v>
       </c>
-      <c r="BK12" s="9">
+      <c r="BK12" s="8">
         <v>8.0756599999999992</v>
       </c>
-      <c r="BL12" s="9">
+      <c r="BL12" s="8">
         <v>8.9649199999999993</v>
       </c>
-      <c r="BM12" s="9">
+      <c r="BM12" s="8">
         <v>7.9430699999999996</v>
       </c>
-      <c r="BN12" s="9">
+      <c r="BN12" s="8">
         <v>8.7584700000000009</v>
       </c>
-      <c r="BO12" s="9">
+      <c r="BO12" s="8">
         <v>6.3030999999999997</v>
       </c>
-      <c r="BP12" s="9">
+      <c r="BP12" s="8">
         <v>6.1244800000000001</v>
       </c>
-      <c r="BQ12" s="9">
+      <c r="BQ12" s="8">
         <v>6.0146199999999999</v>
       </c>
-      <c r="BR12" s="9">
+      <c r="BR12" s="8">
         <v>6.3564400000000001</v>
       </c>
-      <c r="BS12" s="9">
+      <c r="BS12" s="8">
         <v>6.6078400000000004</v>
       </c>
-      <c r="BT12" s="9">
+      <c r="BT12" s="8">
         <v>5.93649</v>
       </c>
-      <c r="BU12" s="9">
+      <c r="BU12" s="8">
         <v>8.8595600000000001</v>
       </c>
-      <c r="BV12" s="9">
+      <c r="BV12" s="8">
         <v>6.8673400000000004</v>
       </c>
-      <c r="BW12" s="9">
+      <c r="BW12" s="8">
         <v>6.3774600000000001</v>
       </c>
-      <c r="BX12" s="9">
+      <c r="BX12" s="8">
         <v>6.64602</v>
       </c>
-      <c r="BY12" s="9">
+      <c r="BY12" s="8">
         <v>7.3281200000000002</v>
       </c>
-      <c r="BZ12" s="9">
+      <c r="BZ12" s="8">
         <v>7.0018399999999996</v>
       </c>
-      <c r="CA12" s="9">
+      <c r="CA12" s="8">
         <v>6.7076700000000002</v>
       </c>
-      <c r="CB12" s="9">
+      <c r="CB12" s="8">
         <v>8.1388599999999993</v>
       </c>
-      <c r="CC12" s="9">
+      <c r="CC12" s="8">
         <v>4.6814900000000002</v>
       </c>
-      <c r="CD12" s="9">
+      <c r="CD12" s="8">
         <v>6.4156700000000004</v>
       </c>
-      <c r="CE12" s="9">
+      <c r="CE12" s="8">
         <v>8.4468200000000007</v>
       </c>
-      <c r="CF12" s="9">
+      <c r="CF12" s="8">
         <v>7.7824900000000001</v>
       </c>
-      <c r="CG12" s="9">
+      <c r="CG12" s="8">
         <v>6.5670400000000004</v>
       </c>
-      <c r="CH12" s="9">
+      <c r="CH12" s="8">
         <v>9.1699900000000003</v>
       </c>
-      <c r="CI12" s="9">
+      <c r="CI12" s="8">
         <v>8.5052800000000008</v>
       </c>
-      <c r="CJ12" s="9">
+      <c r="CJ12" s="8">
         <v>5.9825299999999997</v>
       </c>
-      <c r="CK12" s="9">
+      <c r="CK12" s="8">
         <v>5.9964899999999997</v>
       </c>
-      <c r="CL12" s="9">
+      <c r="CL12" s="8">
         <v>6.9250800000000003</v>
       </c>
-      <c r="CM12" s="9">
+      <c r="CM12" s="8">
         <v>6.49444</v>
       </c>
-      <c r="CN12" s="9">
+      <c r="CN12" s="8">
         <v>6.3431699999999998</v>
       </c>
-      <c r="CO12" s="9">
+      <c r="CO12" s="8">
         <v>5.9912700000000001</v>
       </c>
-      <c r="CP12" s="10" t="s">
+      <c r="CP12" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="CQ12" s="10" t="s">
+      <c r="CQ12" s="9" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="11" t="s">
         <v>295</v>
       </c>
       <c r="B13" s="2">
@@ -3974,7 +3984,7 @@
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>296</v>
       </c>
       <c r="B14" s="4">
@@ -4258,7 +4268,7 @@
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="11" t="s">
         <v>297</v>
       </c>
       <c r="B15" s="2">
@@ -4542,7 +4552,7 @@
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="11" t="s">
         <v>298</v>
       </c>
       <c r="B16" s="2">
@@ -4826,7 +4836,7 @@
       </c>
     </row>
     <row r="17" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="11" t="s">
         <v>299</v>
       </c>
       <c r="B17" s="2">
@@ -5672,6 +5682,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/tests/data/olink/olink_assay_combined.xlsx
+++ b/tests/data/olink/olink_assay_combined.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/tests/data/olink/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-schemas/tests/data/olink/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B4771A-A724-DC4D-BCB0-01C40F01484F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110C4FA-D4FC-A14D-AA04-89E36F5F618F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="302">
   <si>
     <t>Olink NPX Manager 0.0.82.0</t>
   </si>
@@ -920,6 +920,12 @@
   </si>
   <si>
     <t>CTTTP09A1.00</t>
+  </si>
+  <si>
+    <t>some-control-sample</t>
+  </si>
+  <si>
+    <t>another-reference-id</t>
   </si>
 </sst>
 </file>
@@ -929,7 +935,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -956,7 +962,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,6 +972,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5AA9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5AA9C"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -981,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -994,6 +1006,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1308,13 +1324,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ20"/>
+  <dimension ref="A1:CQ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" zoomScale="42" workbookViewId="0">
+      <selection activeCell="CH25" sqref="CH25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="93" width="28" customWidth="1"/>
@@ -1322,17 +1338,17 @@
     <col min="95" max="95" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:95">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:95">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:95">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1619,7 +1635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:95">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1922,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:95">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -2187,7 +2203,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:95">
       <c r="A6" s="1" t="s">
         <v>193</v>
       </c>
@@ -2468,7 +2484,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:95">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2563,7 +2579,7 @@
       <c r="CN7" s="1"/>
       <c r="CO7" s="1"/>
     </row>
-    <row r="9" spans="1:95" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:95" s="9" customFormat="1">
       <c r="A9" s="11" t="s">
         <v>291</v>
       </c>
@@ -2847,7 +2863,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:95" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:95" s="9" customFormat="1">
       <c r="A10" s="11" t="s">
         <v>292</v>
       </c>
@@ -3131,7 +3147,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:95" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:95" s="9" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>293</v>
       </c>
@@ -3415,1418 +3431,1418 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:95" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:95" s="9" customFormat="1">
       <c r="A12" s="11" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B12" s="8">
-        <v>10.158770000000001</v>
+        <v>5.3890399999999996</v>
       </c>
       <c r="C12" s="8">
-        <v>7.4727499999999996</v>
-      </c>
-      <c r="E12" s="8">
-        <v>7.4537000000000004</v>
-      </c>
-      <c r="F12" s="8">
-        <v>7.3738299999999999</v>
+        <v>8.0275999999999996</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1.64015</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1.77817</v>
       </c>
       <c r="G12" s="8">
-        <v>5.9239600000000001</v>
+        <v>1.5354699999999999</v>
       </c>
       <c r="H12" s="8">
-        <v>7.4272499999999999</v>
+        <v>5.6791499999999999</v>
       </c>
       <c r="I12" s="8">
-        <v>6.1239100000000004</v>
+        <v>4.5099400000000003</v>
       </c>
       <c r="J12" s="8">
-        <v>8.5286899999999992</v>
+        <v>8.6995000000000005</v>
       </c>
       <c r="K12" s="8">
-        <v>6.2963199999999997</v>
+        <v>7.5098700000000003</v>
       </c>
       <c r="L12" s="8">
-        <v>8.7127300000000005</v>
+        <v>9.2407800000000009</v>
       </c>
       <c r="M12" s="8">
-        <v>10.038259999999999</v>
-      </c>
-      <c r="N12" s="8">
-        <v>8.3004899999999999</v>
+        <v>1.99051</v>
+      </c>
+      <c r="N12" s="10">
+        <v>1.5549299999999999</v>
       </c>
       <c r="O12" s="8">
-        <v>9.3532299999999999</v>
-      </c>
-      <c r="P12" s="8">
-        <v>6.5704200000000004</v>
+        <v>8.1010600000000004</v>
+      </c>
+      <c r="P12" s="10">
+        <v>1.0474699999999999</v>
       </c>
       <c r="Q12" s="8">
-        <v>9.1646699999999992</v>
+        <v>8.6572800000000001</v>
       </c>
       <c r="R12" s="8">
-        <v>6.2262199999999996</v>
+        <v>7.39635</v>
       </c>
       <c r="S12" s="8">
-        <v>7.17774</v>
-      </c>
-      <c r="T12" s="8">
-        <v>6.3941800000000004</v>
+        <v>6.5392099999999997</v>
+      </c>
+      <c r="T12" s="10">
+        <v>0.96518000000000004</v>
       </c>
       <c r="U12" s="8">
-        <v>6.9149000000000003</v>
+        <v>5.6234900000000003</v>
       </c>
       <c r="V12" s="8">
-        <v>5.8858800000000002</v>
-      </c>
-      <c r="W12" s="8">
-        <v>7.5102500000000001</v>
-      </c>
-      <c r="X12" s="8">
-        <v>3.80145</v>
+        <v>5.19747</v>
+      </c>
+      <c r="W12" s="10">
+        <v>1.67276</v>
+      </c>
+      <c r="X12" s="10">
+        <v>-0.73333000000000004</v>
       </c>
       <c r="Y12" s="8">
-        <v>4.8563599999999996</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>5.9795199999999999</v>
+        <v>1.1449800000000001</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>1.7403200000000001</v>
       </c>
       <c r="AA12" s="8">
-        <v>9.2229299999999999</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>9.2211099999999995</v>
+        <v>9.2596299999999996</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>1.9816100000000001</v>
       </c>
       <c r="AC12" s="8">
-        <v>8.3966899999999995</v>
+        <v>5.0481600000000002</v>
       </c>
       <c r="AD12" s="8">
-        <v>7.4177499999999998</v>
+        <v>3.5706799999999999</v>
       </c>
       <c r="AE12" s="8">
-        <v>8.1916600000000006</v>
+        <v>8.8241099999999992</v>
       </c>
       <c r="AF12" s="8">
-        <v>6.0623300000000002</v>
+        <v>6.5130800000000004</v>
       </c>
       <c r="AG12" s="8">
-        <v>9.1206700000000005</v>
+        <v>1.70407</v>
       </c>
       <c r="AH12" s="8">
-        <v>6.2064899999999996</v>
+        <v>1.5643199999999999</v>
       </c>
       <c r="AI12" s="8">
-        <v>3.12277</v>
+        <v>4.62066</v>
       </c>
       <c r="AJ12" s="8">
-        <v>7.13347</v>
+        <v>6.0664400000000001</v>
       </c>
       <c r="AK12" s="8">
-        <v>5.5058299999999996</v>
+        <v>4.3881899999999998</v>
       </c>
       <c r="AL12" s="8">
-        <v>6.57064</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="AM12" s="8">
-        <v>5.57456</v>
-      </c>
-      <c r="AN12" s="8">
-        <v>5.6974900000000002</v>
+        <v>0.49991000000000002</v>
+      </c>
+      <c r="AN12" s="10">
+        <v>1.2237499999999999</v>
       </c>
       <c r="AO12" s="8">
-        <v>10.532019999999999</v>
+        <v>14.24718</v>
       </c>
       <c r="AP12" s="8">
-        <v>4.6502100000000004</v>
+        <v>1.64514</v>
       </c>
       <c r="AQ12" s="8">
-        <v>5.2417499999999997</v>
+        <v>2.5803699999999998</v>
       </c>
       <c r="AR12" s="8">
-        <v>7.7904299999999997</v>
+        <v>7.4511900000000004</v>
       </c>
       <c r="AS12" s="8">
-        <v>4.2834199999999996</v>
+        <v>0.42118</v>
       </c>
       <c r="AT12" s="8">
-        <v>6.7729100000000004</v>
-      </c>
-      <c r="AU12" s="8">
-        <v>8.7543600000000001</v>
+        <v>5.1055000000000001</v>
+      </c>
+      <c r="AU12" s="10">
+        <v>2.3804400000000001</v>
       </c>
       <c r="AV12" s="8">
-        <v>6.0541999999999998</v>
+        <v>5.0037399999999996</v>
       </c>
       <c r="AW12" s="8">
-        <v>8.0451899999999998</v>
+        <v>3.4083899999999998</v>
       </c>
       <c r="AX12" s="8">
-        <v>5.39635</v>
+        <v>1.0848</v>
       </c>
       <c r="AY12" s="8">
-        <v>10.5456</v>
+        <v>12.60385</v>
       </c>
       <c r="AZ12" s="8">
-        <v>7.3565100000000001</v>
+        <v>4.0495000000000001</v>
       </c>
       <c r="BA12" s="8">
-        <v>6.7207600000000003</v>
+        <v>6.5603400000000001</v>
       </c>
       <c r="BB12" s="8">
-        <v>3.4305500000000002</v>
-      </c>
-      <c r="BC12" s="8">
-        <v>9.7064699999999995</v>
-      </c>
-      <c r="BD12" s="8">
-        <v>6.1847399999999997</v>
-      </c>
-      <c r="BE12" s="8">
-        <v>5.1341099999999997</v>
+        <v>2.0788799999999998</v>
+      </c>
+      <c r="BC12" s="10">
+        <v>2.3016700000000001</v>
+      </c>
+      <c r="BD12" s="10">
+        <v>1.32935</v>
+      </c>
+      <c r="BE12" s="10">
+        <v>1.3167599999999999</v>
       </c>
       <c r="BF12" s="8">
-        <v>5.9257099999999996</v>
+        <v>5.7244900000000003</v>
       </c>
       <c r="BG12" s="8">
-        <v>6.2577100000000003</v>
-      </c>
-      <c r="BH12" s="8">
-        <v>7.2429300000000003</v>
+        <v>2.21645</v>
+      </c>
+      <c r="BH12" s="10">
+        <v>0.92159000000000002</v>
       </c>
       <c r="BI12" s="8">
-        <v>7.8703099999999999</v>
+        <v>6.7986000000000004</v>
       </c>
       <c r="BJ12" s="8">
-        <v>5.3787099999999999</v>
+        <v>4.2192499999999997</v>
       </c>
       <c r="BK12" s="8">
-        <v>8.0756599999999992</v>
+        <v>3.0885799999999999</v>
       </c>
       <c r="BL12" s="8">
-        <v>8.9649199999999993</v>
+        <v>6.6686100000000001</v>
       </c>
       <c r="BM12" s="8">
-        <v>7.9430699999999996</v>
+        <v>8.3308599999999995</v>
       </c>
       <c r="BN12" s="8">
-        <v>8.7584700000000009</v>
+        <v>7.6117800000000004</v>
       </c>
       <c r="BO12" s="8">
-        <v>6.3030999999999997</v>
-      </c>
-      <c r="BP12" s="8">
-        <v>6.1244800000000001</v>
+        <v>9.0845699999999994</v>
+      </c>
+      <c r="BP12" s="10">
+        <v>0.99180999999999997</v>
       </c>
       <c r="BQ12" s="8">
-        <v>6.0146199999999999</v>
+        <v>6.4739800000000001</v>
       </c>
       <c r="BR12" s="8">
-        <v>6.3564400000000001</v>
+        <v>1.50126</v>
       </c>
       <c r="BS12" s="8">
-        <v>6.6078400000000004</v>
+        <v>6.65564</v>
       </c>
       <c r="BT12" s="8">
-        <v>5.93649</v>
+        <v>2.8513899999999999</v>
       </c>
       <c r="BU12" s="8">
-        <v>8.8595600000000001</v>
-      </c>
-      <c r="BV12" s="8">
-        <v>6.8673400000000004</v>
-      </c>
-      <c r="BW12" s="8">
-        <v>6.3774600000000001</v>
+        <v>11.17624</v>
+      </c>
+      <c r="BV12" s="10">
+        <v>1.8282700000000001</v>
+      </c>
+      <c r="BW12" s="10">
+        <v>0.92803000000000002</v>
       </c>
       <c r="BX12" s="8">
-        <v>6.64602</v>
-      </c>
-      <c r="BY12" s="8">
-        <v>7.3281200000000002</v>
-      </c>
-      <c r="BZ12" s="8">
-        <v>7.0018399999999996</v>
-      </c>
-      <c r="CA12" s="8">
-        <v>6.7076700000000002</v>
+        <v>7.9254499999999997</v>
+      </c>
+      <c r="BY12" s="10">
+        <v>1.1127899999999999</v>
+      </c>
+      <c r="BZ12" s="10">
+        <v>0.83070999999999995</v>
+      </c>
+      <c r="CA12" s="10">
+        <v>0.71570999999999996</v>
       </c>
       <c r="CB12" s="8">
-        <v>8.1388599999999993</v>
+        <v>8.8757099999999998</v>
       </c>
       <c r="CC12" s="8">
-        <v>4.6814900000000002</v>
+        <v>3.8277399999999999</v>
       </c>
       <c r="CD12" s="8">
-        <v>6.4156700000000004</v>
+        <v>4.0646599999999999</v>
       </c>
       <c r="CE12" s="8">
-        <v>8.4468200000000007</v>
+        <v>4.6546200000000004</v>
       </c>
       <c r="CF12" s="8">
-        <v>7.7824900000000001</v>
+        <v>4.7480599999999997</v>
       </c>
       <c r="CG12" s="8">
-        <v>6.5670400000000004</v>
+        <v>1.39032</v>
       </c>
       <c r="CH12" s="8">
-        <v>9.1699900000000003</v>
+        <v>8.7408900000000003</v>
       </c>
       <c r="CI12" s="8">
-        <v>8.5052800000000008</v>
+        <v>5.4637700000000002</v>
       </c>
       <c r="CJ12" s="8">
-        <v>5.9825299999999997</v>
+        <v>5.5136500000000002</v>
       </c>
       <c r="CK12" s="8">
-        <v>5.9964899999999997</v>
+        <v>8.0868500000000001</v>
       </c>
       <c r="CL12" s="8">
-        <v>6.9250800000000003</v>
+        <v>2.0654499999999998</v>
       </c>
       <c r="CM12" s="8">
-        <v>6.49444</v>
+        <v>3.9321600000000001</v>
       </c>
       <c r="CN12" s="8">
-        <v>6.3431699999999998</v>
+        <v>2.5042300000000002</v>
       </c>
       <c r="CO12" s="8">
-        <v>5.9912700000000001</v>
+        <v>5.9447799999999997</v>
       </c>
       <c r="CP12" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="CQ12" s="9" t="s">
+      <c r="CQ12" s="12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:95" s="9" customFormat="1">
       <c r="A13" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="8">
+        <v>10.158770000000001</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7.4727499999999996</v>
+      </c>
+      <c r="E13" s="8">
+        <v>7.4537000000000004</v>
+      </c>
+      <c r="F13" s="8">
+        <v>7.3738299999999999</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5.9239600000000001</v>
+      </c>
+      <c r="H13" s="8">
+        <v>7.4272499999999999</v>
+      </c>
+      <c r="I13" s="8">
+        <v>6.1239100000000004</v>
+      </c>
+      <c r="J13" s="8">
+        <v>8.5286899999999992</v>
+      </c>
+      <c r="K13" s="8">
+        <v>6.2963199999999997</v>
+      </c>
+      <c r="L13" s="8">
+        <v>8.7127300000000005</v>
+      </c>
+      <c r="M13" s="8">
+        <v>10.038259999999999</v>
+      </c>
+      <c r="N13" s="8">
+        <v>8.3004899999999999</v>
+      </c>
+      <c r="O13" s="8">
+        <v>9.3532299999999999</v>
+      </c>
+      <c r="P13" s="8">
+        <v>6.5704200000000004</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>9.1646699999999992</v>
+      </c>
+      <c r="R13" s="8">
+        <v>6.2262199999999996</v>
+      </c>
+      <c r="S13" s="8">
+        <v>7.17774</v>
+      </c>
+      <c r="T13" s="8">
+        <v>6.3941800000000004</v>
+      </c>
+      <c r="U13" s="8">
+        <v>6.9149000000000003</v>
+      </c>
+      <c r="V13" s="8">
+        <v>5.8858800000000002</v>
+      </c>
+      <c r="W13" s="8">
+        <v>7.5102500000000001</v>
+      </c>
+      <c r="X13" s="8">
+        <v>3.80145</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>4.8563599999999996</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>5.9795199999999999</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>9.2229299999999999</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>9.2211099999999995</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>8.3966899999999995</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>7.4177499999999998</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>8.1916600000000006</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>6.0623300000000002</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>9.1206700000000005</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>6.2064899999999996</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>3.12277</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>7.13347</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>5.5058299999999996</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>6.57064</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>5.57456</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>5.6974900000000002</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>10.532019999999999</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>4.6502100000000004</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>5.2417499999999997</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>7.7904299999999997</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>4.2834199999999996</v>
+      </c>
+      <c r="AT13" s="8">
+        <v>6.7729100000000004</v>
+      </c>
+      <c r="AU13" s="8">
+        <v>8.7543600000000001</v>
+      </c>
+      <c r="AV13" s="8">
+        <v>6.0541999999999998</v>
+      </c>
+      <c r="AW13" s="8">
+        <v>8.0451899999999998</v>
+      </c>
+      <c r="AX13" s="8">
+        <v>5.39635</v>
+      </c>
+      <c r="AY13" s="8">
+        <v>10.5456</v>
+      </c>
+      <c r="AZ13" s="8">
+        <v>7.3565100000000001</v>
+      </c>
+      <c r="BA13" s="8">
+        <v>6.7207600000000003</v>
+      </c>
+      <c r="BB13" s="8">
+        <v>3.4305500000000002</v>
+      </c>
+      <c r="BC13" s="8">
+        <v>9.7064699999999995</v>
+      </c>
+      <c r="BD13" s="8">
+        <v>6.1847399999999997</v>
+      </c>
+      <c r="BE13" s="8">
+        <v>5.1341099999999997</v>
+      </c>
+      <c r="BF13" s="8">
+        <v>5.9257099999999996</v>
+      </c>
+      <c r="BG13" s="8">
+        <v>6.2577100000000003</v>
+      </c>
+      <c r="BH13" s="8">
+        <v>7.2429300000000003</v>
+      </c>
+      <c r="BI13" s="8">
+        <v>7.8703099999999999</v>
+      </c>
+      <c r="BJ13" s="8">
+        <v>5.3787099999999999</v>
+      </c>
+      <c r="BK13" s="8">
+        <v>8.0756599999999992</v>
+      </c>
+      <c r="BL13" s="8">
+        <v>8.9649199999999993</v>
+      </c>
+      <c r="BM13" s="8">
+        <v>7.9430699999999996</v>
+      </c>
+      <c r="BN13" s="8">
+        <v>8.7584700000000009</v>
+      </c>
+      <c r="BO13" s="8">
+        <v>6.3030999999999997</v>
+      </c>
+      <c r="BP13" s="8">
+        <v>6.1244800000000001</v>
+      </c>
+      <c r="BQ13" s="8">
+        <v>6.0146199999999999</v>
+      </c>
+      <c r="BR13" s="8">
+        <v>6.3564400000000001</v>
+      </c>
+      <c r="BS13" s="8">
+        <v>6.6078400000000004</v>
+      </c>
+      <c r="BT13" s="8">
+        <v>5.93649</v>
+      </c>
+      <c r="BU13" s="8">
+        <v>8.8595600000000001</v>
+      </c>
+      <c r="BV13" s="8">
+        <v>6.8673400000000004</v>
+      </c>
+      <c r="BW13" s="8">
+        <v>6.3774600000000001</v>
+      </c>
+      <c r="BX13" s="8">
+        <v>6.64602</v>
+      </c>
+      <c r="BY13" s="8">
+        <v>7.3281200000000002</v>
+      </c>
+      <c r="BZ13" s="8">
+        <v>7.0018399999999996</v>
+      </c>
+      <c r="CA13" s="8">
+        <v>6.7076700000000002</v>
+      </c>
+      <c r="CB13" s="8">
+        <v>8.1388599999999993</v>
+      </c>
+      <c r="CC13" s="8">
+        <v>4.6814900000000002</v>
+      </c>
+      <c r="CD13" s="8">
+        <v>6.4156700000000004</v>
+      </c>
+      <c r="CE13" s="8">
+        <v>8.4468200000000007</v>
+      </c>
+      <c r="CF13" s="8">
+        <v>7.7824900000000001</v>
+      </c>
+      <c r="CG13" s="8">
+        <v>6.5670400000000004</v>
+      </c>
+      <c r="CH13" s="8">
+        <v>9.1699900000000003</v>
+      </c>
+      <c r="CI13" s="8">
+        <v>8.5052800000000008</v>
+      </c>
+      <c r="CJ13" s="8">
+        <v>5.9825299999999997</v>
+      </c>
+      <c r="CK13" s="8">
+        <v>5.9964899999999997</v>
+      </c>
+      <c r="CL13" s="8">
+        <v>6.9250800000000003</v>
+      </c>
+      <c r="CM13" s="8">
+        <v>6.49444</v>
+      </c>
+      <c r="CN13" s="8">
+        <v>6.3431699999999998</v>
+      </c>
+      <c r="CO13" s="8">
+        <v>5.9912700000000001</v>
+      </c>
+      <c r="CP13" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ13" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:95">
+      <c r="A14" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>7.4387400000000001</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>7.7643800000000001</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>1.9384999999999999</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>1.77817</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>1.77803</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <v>5.2982699999999996</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I14" s="2">
         <v>2.4704299999999999</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J14" s="2">
         <v>8.6819199999999999</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K14" s="2">
         <v>6.3011900000000001</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L14" s="2">
         <v>9.2125000000000004</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M14" s="2">
         <v>1.5348999999999999</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N14" s="2">
         <v>1.8754200000000001</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O14" s="2">
         <v>8.8018300000000007</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P14" s="3">
         <v>1.0474699999999999</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q14" s="2">
         <v>10.738099999999999</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R14" s="2">
         <v>3.3330899999999999</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S14" s="2">
         <v>6.4995399999999997</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T14" s="3">
         <v>0.96518000000000004</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U14" s="2">
         <v>6.5210900000000001</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V14" s="2">
         <v>5.77949</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W14" s="3">
         <v>1.67276</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X14" s="3">
         <v>-0.73333000000000004</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y14" s="2">
         <v>2.19055</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z14" s="3">
         <v>1.7403200000000001</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA14" s="2">
         <v>9.4390900000000002</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB14" s="3">
         <v>1.9816100000000001</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AC14" s="2">
         <v>5.125</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD14" s="2">
         <v>3.86171</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AE14" s="2">
         <v>9.2259399999999996</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AF14" s="2">
         <v>6.1543000000000001</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AG14" s="2">
         <v>2.18147</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AH14" s="2">
         <v>2.0533700000000001</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AI14" s="2">
         <v>5.06616</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AJ14" s="2">
         <v>8.0668900000000008</v>
       </c>
-      <c r="AK13" s="2">
+      <c r="AK14" s="2">
         <v>3.88645</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AL14" s="3">
         <v>1.6230800000000001</v>
       </c>
-      <c r="AM13" s="3">
+      <c r="AM14" s="3">
         <v>0.37853999999999999</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AN14" s="3">
         <v>1.2237499999999999</v>
       </c>
-      <c r="AO13" s="2">
+      <c r="AO14" s="2">
         <v>12.87785</v>
       </c>
-      <c r="AP13" s="2">
+      <c r="AP14" s="2">
         <v>2.0110899999999998</v>
       </c>
-      <c r="AQ13" s="2">
+      <c r="AQ14" s="2">
         <v>2.9211800000000001</v>
       </c>
-      <c r="AR13" s="2">
+      <c r="AR14" s="2">
         <v>8.3821300000000001</v>
       </c>
-      <c r="AS13" s="3">
+      <c r="AS14" s="3">
         <v>0.33593000000000001</v>
       </c>
-      <c r="AT13" s="2">
+      <c r="AT14" s="2">
         <v>6.1241700000000003</v>
       </c>
-      <c r="AU13" s="3">
+      <c r="AU14" s="3">
         <v>2.3804400000000001</v>
       </c>
-      <c r="AV13" s="2">
+      <c r="AV14" s="2">
         <v>5.7891199999999996</v>
       </c>
-      <c r="AW13" s="2">
+      <c r="AW14" s="2">
         <v>3.5987300000000002</v>
       </c>
-      <c r="AX13" s="2">
+      <c r="AX14" s="2">
         <v>0.76132</v>
       </c>
-      <c r="AY13" s="2">
+      <c r="AY14" s="2">
         <v>10.151160000000001</v>
       </c>
-      <c r="AZ13" s="2">
+      <c r="AZ14" s="2">
         <v>4.2210900000000002</v>
       </c>
-      <c r="BA13" s="2">
+      <c r="BA14" s="2">
         <v>6.39133</v>
       </c>
-      <c r="BB13" s="2">
+      <c r="BB14" s="2">
         <v>2.5594700000000001</v>
       </c>
-      <c r="BC13" s="3">
+      <c r="BC14" s="3">
         <v>2.3016700000000001</v>
       </c>
-      <c r="BD13" s="3">
+      <c r="BD14" s="3">
         <v>1.32935</v>
       </c>
-      <c r="BE13" s="3">
+      <c r="BE14" s="3">
         <v>1.3167599999999999</v>
       </c>
-      <c r="BF13" s="2">
+      <c r="BF14" s="2">
         <v>5.8815200000000001</v>
       </c>
-      <c r="BG13" s="2">
+      <c r="BG14" s="2">
         <v>1.7818000000000001</v>
       </c>
-      <c r="BH13" s="3">
+      <c r="BH14" s="3">
         <v>0.92159000000000002</v>
       </c>
-      <c r="BI13" s="2">
+      <c r="BI14" s="2">
         <v>8.6255299999999995</v>
       </c>
-      <c r="BJ13" s="2">
+      <c r="BJ14" s="2">
         <v>3.6226099999999999</v>
       </c>
-      <c r="BK13" s="2">
+      <c r="BK14" s="2">
         <v>3.3412899999999999</v>
       </c>
-      <c r="BL13" s="2">
+      <c r="BL14" s="2">
         <v>7.8892699999999998</v>
       </c>
-      <c r="BM13" s="2">
+      <c r="BM14" s="2">
         <v>7.5370699999999999</v>
       </c>
-      <c r="BN13" s="2">
+      <c r="BN14" s="2">
         <v>8.1574399999999994</v>
       </c>
-      <c r="BO13" s="2">
+      <c r="BO14" s="2">
         <v>5.4050399999999996</v>
       </c>
-      <c r="BP13" s="3">
+      <c r="BP14" s="3">
         <v>0.99180999999999997</v>
       </c>
-      <c r="BQ13" s="2">
+      <c r="BQ14" s="2">
         <v>3.26674</v>
       </c>
-      <c r="BR13" s="3">
+      <c r="BR14" s="3">
         <v>1.1291800000000001</v>
       </c>
-      <c r="BS13" s="2">
+      <c r="BS14" s="2">
         <v>7.2224899999999996</v>
       </c>
-      <c r="BT13" s="2">
+      <c r="BT14" s="2">
         <v>2.0033500000000002</v>
       </c>
-      <c r="BU13" s="2">
+      <c r="BU14" s="2">
         <v>10.31466</v>
       </c>
-      <c r="BV13" s="3">
+      <c r="BV14" s="3">
         <v>1.8282700000000001</v>
       </c>
-      <c r="BW13" s="3">
+      <c r="BW14" s="3">
         <v>0.92803000000000002</v>
       </c>
-      <c r="BX13" s="2">
+      <c r="BX14" s="2">
         <v>8.5428599999999992</v>
       </c>
-      <c r="BY13" s="3">
+      <c r="BY14" s="3">
         <v>1.1127899999999999</v>
       </c>
-      <c r="BZ13" s="3">
+      <c r="BZ14" s="3">
         <v>0.83070999999999995</v>
       </c>
-      <c r="CA13" s="3">
+      <c r="CA14" s="3">
         <v>0.71570999999999996</v>
       </c>
-      <c r="CB13" s="2">
+      <c r="CB14" s="2">
         <v>7.0763699999999998</v>
       </c>
-      <c r="CC13" s="2">
+      <c r="CC14" s="2">
         <v>3.5434899999999998</v>
       </c>
-      <c r="CD13" s="2">
+      <c r="CD14" s="2">
         <v>4.9920600000000004</v>
       </c>
-      <c r="CE13" s="2">
+      <c r="CE14" s="2">
         <v>4.4337400000000002</v>
       </c>
-      <c r="CF13" s="2">
+      <c r="CF14" s="2">
         <v>4.9620100000000003</v>
       </c>
-      <c r="CG13" s="2">
+      <c r="CG14" s="2">
         <v>1.5863499999999999</v>
       </c>
-      <c r="CH13" s="2">
+      <c r="CH14" s="2">
         <v>8.5894700000000004</v>
       </c>
-      <c r="CI13" s="2">
+      <c r="CI14" s="2">
         <v>4.40456</v>
       </c>
-      <c r="CJ13" s="2">
+      <c r="CJ14" s="2">
         <v>3.7540300000000002</v>
       </c>
-      <c r="CK13" s="2">
+      <c r="CK14" s="2">
         <v>4.7169299999999996</v>
       </c>
-      <c r="CL13" s="3">
+      <c r="CL14" s="3">
         <v>1.7406600000000001</v>
       </c>
-      <c r="CM13" s="2">
+      <c r="CM14" s="2">
         <v>3.06474</v>
       </c>
-      <c r="CN13" s="2">
+      <c r="CN14" s="2">
         <v>3.4742899999999999</v>
       </c>
-      <c r="CO13" s="2">
+      <c r="CO14" s="2">
         <v>6.1181400000000004</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>286</v>
-      </c>
-      <c r="CQ13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="4">
-        <v>7.4578600000000002</v>
-      </c>
-      <c r="C14" s="4">
-        <v>8.2348499999999998</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3.0508799999999998</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1.77817</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1.2462200000000001</v>
-      </c>
-      <c r="H14" s="4">
-        <v>5.0692300000000001</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2.1009099999999998</v>
-      </c>
-      <c r="J14" s="4">
-        <v>8.54678</v>
-      </c>
-      <c r="K14" s="4">
-        <v>6.5440199999999997</v>
-      </c>
-      <c r="L14" s="4">
-        <v>9.0733899999999998</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1.8196300000000001</v>
-      </c>
-      <c r="N14" s="5">
-        <v>1.5549299999999999</v>
-      </c>
-      <c r="O14" s="4">
-        <v>8.6092099999999991</v>
-      </c>
-      <c r="P14" s="5">
-        <v>1.0474699999999999</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>10.368209999999999</v>
-      </c>
-      <c r="R14" s="4">
-        <v>3.38287</v>
-      </c>
-      <c r="S14" s="4">
-        <v>6.42631</v>
-      </c>
-      <c r="T14" s="5">
-        <v>0.96518000000000004</v>
-      </c>
-      <c r="U14" s="4">
-        <v>5.6928200000000002</v>
-      </c>
-      <c r="V14" s="4">
-        <v>4.8704200000000002</v>
-      </c>
-      <c r="W14" s="5">
-        <v>1.67276</v>
-      </c>
-      <c r="X14" s="5">
-        <v>-0.73333000000000004</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>3.5387599999999999</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>1.7403200000000001</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>8.2698699999999992</v>
-      </c>
-      <c r="AB14" s="5">
-        <v>1.9816100000000001</v>
-      </c>
-      <c r="AC14" s="4">
-        <v>5.4969200000000003</v>
-      </c>
-      <c r="AD14" s="4">
-        <v>3.4577900000000001</v>
-      </c>
-      <c r="AE14" s="4">
-        <v>8.8211999999999993</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>6.16629</v>
-      </c>
-      <c r="AG14" s="5">
-        <v>0.95889999999999997</v>
-      </c>
-      <c r="AH14" s="4">
-        <v>2.0518299999999998</v>
-      </c>
-      <c r="AI14" s="4">
-        <v>4.3528900000000004</v>
-      </c>
-      <c r="AJ14" s="4">
-        <v>7.8207199999999997</v>
-      </c>
-      <c r="AK14" s="4">
-        <v>4.1994499999999997</v>
-      </c>
-      <c r="AL14" s="4">
-        <v>1.64486</v>
-      </c>
-      <c r="AM14" s="5">
-        <v>0.37853999999999999</v>
-      </c>
-      <c r="AN14" s="5">
-        <v>1.2237499999999999</v>
-      </c>
-      <c r="AO14" s="4">
-        <v>12.47301</v>
-      </c>
-      <c r="AP14" s="4">
-        <v>1.72434</v>
-      </c>
-      <c r="AQ14" s="4">
-        <v>3.40279</v>
-      </c>
-      <c r="AR14" s="4">
-        <v>7.0087000000000002</v>
-      </c>
-      <c r="AS14" s="5">
-        <v>0.33593000000000001</v>
-      </c>
-      <c r="AT14" s="4">
-        <v>5.8300700000000001</v>
-      </c>
-      <c r="AU14" s="5">
-        <v>2.3804400000000001</v>
-      </c>
-      <c r="AV14" s="4">
-        <v>5.4269499999999997</v>
-      </c>
-      <c r="AW14" s="4">
-        <v>3.0123899999999999</v>
-      </c>
-      <c r="AX14" s="4">
-        <v>0.96186000000000005</v>
-      </c>
-      <c r="AY14" s="4">
-        <v>10.72728</v>
-      </c>
-      <c r="AZ14" s="4">
-        <v>2.9376199999999999</v>
-      </c>
-      <c r="BA14" s="4">
-        <v>6.7423200000000003</v>
-      </c>
-      <c r="BB14" s="4">
-        <v>2.35317</v>
-      </c>
-      <c r="BC14" s="5">
-        <v>2.3016700000000001</v>
-      </c>
-      <c r="BD14" s="5">
-        <v>1.32935</v>
-      </c>
-      <c r="BE14" s="5">
-        <v>1.3167599999999999</v>
-      </c>
-      <c r="BF14" s="4">
-        <v>5.2313000000000001</v>
-      </c>
-      <c r="BG14" s="5">
-        <v>1.6696899999999999</v>
-      </c>
-      <c r="BH14" s="5">
-        <v>0.92159000000000002</v>
-      </c>
-      <c r="BI14" s="4">
-        <v>8.7317199999999993</v>
-      </c>
-      <c r="BJ14" s="4">
-        <v>3.7204600000000001</v>
-      </c>
-      <c r="BK14" s="4">
-        <v>3.85148</v>
-      </c>
-      <c r="BL14" s="4">
-        <v>7.1966900000000003</v>
-      </c>
-      <c r="BM14" s="4">
-        <v>8.2138899999999992</v>
-      </c>
-      <c r="BN14" s="4">
-        <v>6.6560800000000002</v>
-      </c>
-      <c r="BO14" s="4">
-        <v>7.7871600000000001</v>
-      </c>
-      <c r="BP14" s="5">
-        <v>0.99180999999999997</v>
-      </c>
-      <c r="BQ14" s="4">
-        <v>3.45025</v>
-      </c>
-      <c r="BR14" s="5">
-        <v>1.1291800000000001</v>
-      </c>
-      <c r="BS14" s="4">
-        <v>6.4205300000000003</v>
-      </c>
-      <c r="BT14" s="4">
-        <v>3.9446099999999999</v>
-      </c>
-      <c r="BU14" s="4">
-        <v>9.7749100000000002</v>
-      </c>
-      <c r="BV14" s="5">
-        <v>1.8282700000000001</v>
-      </c>
-      <c r="BW14" s="5">
-        <v>0.92803000000000002</v>
-      </c>
-      <c r="BX14" s="4">
-        <v>6.0973199999999999</v>
-      </c>
-      <c r="BY14" s="5">
-        <v>1.1127899999999999</v>
-      </c>
-      <c r="BZ14" s="5">
-        <v>0.83070999999999995</v>
-      </c>
-      <c r="CA14" s="5">
-        <v>0.71570999999999996</v>
-      </c>
-      <c r="CB14" s="4">
-        <v>7.8081899999999997</v>
-      </c>
-      <c r="CC14" s="4">
-        <v>3.9549400000000001</v>
-      </c>
-      <c r="CD14" s="4">
-        <v>4.3291300000000001</v>
-      </c>
-      <c r="CE14" s="4">
-        <v>4.0634699999999997</v>
-      </c>
-      <c r="CF14" s="4">
-        <v>5.0395899999999996</v>
-      </c>
-      <c r="CG14" s="5">
-        <v>1.26908</v>
-      </c>
-      <c r="CH14" s="4">
-        <v>8.6027299999999993</v>
-      </c>
-      <c r="CI14" s="4">
-        <v>4.0101399999999998</v>
-      </c>
-      <c r="CJ14" s="4">
-        <v>4.4623999999999997</v>
-      </c>
-      <c r="CK14" s="4">
-        <v>5.00929</v>
-      </c>
-      <c r="CL14" s="5">
-        <v>1.7406600000000001</v>
-      </c>
-      <c r="CM14" s="4">
-        <v>2.4922800000000001</v>
-      </c>
-      <c r="CN14" s="4">
-        <v>2.7984800000000001</v>
-      </c>
-      <c r="CO14" s="4">
-        <v>6.0998099999999997</v>
       </c>
       <c r="CP14" t="s">
         <v>286</v>
       </c>
       <c r="CQ14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:95">
       <c r="A15" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2.3890400000000001</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8.0275999999999996</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1.64015</v>
-      </c>
-      <c r="F15" s="3">
+        <v>296</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7.4578600000000002</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8.2348499999999998</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3.0508799999999998</v>
+      </c>
+      <c r="F15" s="5">
         <v>1.77817</v>
       </c>
-      <c r="G15" s="2">
-        <v>1.5354699999999999</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5.6791499999999999</v>
-      </c>
-      <c r="I15" s="2">
-        <v>4.5099400000000003</v>
-      </c>
-      <c r="J15" s="2">
-        <v>8.6995000000000005</v>
-      </c>
-      <c r="K15" s="2">
-        <v>7.5098700000000003</v>
-      </c>
-      <c r="L15" s="2">
-        <v>9.2407800000000009</v>
-      </c>
-      <c r="M15" s="2">
-        <v>1.99051</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="G15" s="4">
+        <v>1.2462200000000001</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5.0692300000000001</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2.1009099999999998</v>
+      </c>
+      <c r="J15" s="4">
+        <v>8.54678</v>
+      </c>
+      <c r="K15" s="4">
+        <v>6.5440199999999997</v>
+      </c>
+      <c r="L15" s="4">
+        <v>9.0733899999999998</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1.8196300000000001</v>
+      </c>
+      <c r="N15" s="5">
         <v>1.5549299999999999</v>
       </c>
-      <c r="O15" s="2">
-        <v>8.1010600000000004</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="O15" s="4">
+        <v>8.6092099999999991</v>
+      </c>
+      <c r="P15" s="5">
         <v>1.0474699999999999</v>
       </c>
-      <c r="Q15" s="2">
-        <v>8.6572800000000001</v>
-      </c>
-      <c r="R15" s="2">
-        <v>7.39635</v>
-      </c>
-      <c r="S15" s="2">
-        <v>6.5392099999999997</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="Q15" s="4">
+        <v>10.368209999999999</v>
+      </c>
+      <c r="R15" s="4">
+        <v>3.38287</v>
+      </c>
+      <c r="S15" s="4">
+        <v>6.42631</v>
+      </c>
+      <c r="T15" s="5">
         <v>0.96518000000000004</v>
       </c>
-      <c r="U15" s="2">
-        <v>5.6234900000000003</v>
-      </c>
-      <c r="V15" s="2">
-        <v>5.19747</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="U15" s="4">
+        <v>5.6928200000000002</v>
+      </c>
+      <c r="V15" s="4">
+        <v>4.8704200000000002</v>
+      </c>
+      <c r="W15" s="5">
         <v>1.67276</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="5">
         <v>-0.73333000000000004</v>
       </c>
-      <c r="Y15" s="2">
-        <v>1.1449800000000001</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Y15" s="4">
+        <v>3.5387599999999999</v>
+      </c>
+      <c r="Z15" s="5">
         <v>1.7403200000000001</v>
       </c>
-      <c r="AA15" s="2">
-        <v>9.2596299999999996</v>
-      </c>
-      <c r="AB15" s="3">
+      <c r="AA15" s="4">
+        <v>8.2698699999999992</v>
+      </c>
+      <c r="AB15" s="5">
         <v>1.9816100000000001</v>
       </c>
-      <c r="AC15" s="2">
-        <v>5.0481600000000002</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>3.5706799999999999</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>8.8241099999999992</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>6.5130800000000004</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>1.70407</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>1.5643199999999999</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>4.62066</v>
-      </c>
-      <c r="AJ15" s="2">
-        <v>6.0664400000000001</v>
-      </c>
-      <c r="AK15" s="2">
-        <v>4.3881899999999998</v>
-      </c>
-      <c r="AL15" s="2">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>0.49991000000000002</v>
-      </c>
-      <c r="AN15" s="3">
+      <c r="AC15" s="4">
+        <v>5.4969200000000003</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>3.4577900000000001</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>8.8211999999999993</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>6.16629</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>2.0518299999999998</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>4.3528900000000004</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>7.8207199999999997</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>4.1994499999999997</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>1.64486</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>0.37853999999999999</v>
+      </c>
+      <c r="AN15" s="5">
         <v>1.2237499999999999</v>
       </c>
-      <c r="AO15" s="2">
-        <v>14.24718</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>1.64514</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>2.5803699999999998</v>
-      </c>
-      <c r="AR15" s="2">
-        <v>7.4511900000000004</v>
-      </c>
-      <c r="AS15" s="2">
-        <v>0.42118</v>
-      </c>
-      <c r="AT15" s="2">
-        <v>5.1055000000000001</v>
-      </c>
-      <c r="AU15" s="3">
+      <c r="AO15" s="4">
+        <v>12.47301</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>1.72434</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>3.40279</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>7.0087000000000002</v>
+      </c>
+      <c r="AS15" s="5">
+        <v>0.33593000000000001</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>5.8300700000000001</v>
+      </c>
+      <c r="AU15" s="5">
         <v>2.3804400000000001</v>
       </c>
-      <c r="AV15" s="2">
-        <v>5.0037399999999996</v>
-      </c>
-      <c r="AW15" s="2">
-        <v>3.4083899999999998</v>
-      </c>
-      <c r="AX15" s="2">
-        <v>1.0848</v>
-      </c>
-      <c r="AY15" s="2">
-        <v>12.60385</v>
-      </c>
-      <c r="AZ15" s="2">
-        <v>4.0495000000000001</v>
-      </c>
-      <c r="BA15" s="2">
-        <v>6.5603400000000001</v>
-      </c>
-      <c r="BB15" s="2">
-        <v>2.0788799999999998</v>
-      </c>
-      <c r="BC15" s="3">
+      <c r="AV15" s="4">
+        <v>5.4269499999999997</v>
+      </c>
+      <c r="AW15" s="4">
+        <v>3.0123899999999999</v>
+      </c>
+      <c r="AX15" s="4">
+        <v>0.96186000000000005</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>10.72728</v>
+      </c>
+      <c r="AZ15" s="4">
+        <v>2.9376199999999999</v>
+      </c>
+      <c r="BA15" s="4">
+        <v>6.7423200000000003</v>
+      </c>
+      <c r="BB15" s="4">
+        <v>2.35317</v>
+      </c>
+      <c r="BC15" s="5">
         <v>2.3016700000000001</v>
       </c>
-      <c r="BD15" s="3">
+      <c r="BD15" s="5">
         <v>1.32935</v>
       </c>
-      <c r="BE15" s="3">
+      <c r="BE15" s="5">
         <v>1.3167599999999999</v>
       </c>
-      <c r="BF15" s="2">
-        <v>5.7244900000000003</v>
-      </c>
-      <c r="BG15" s="2">
-        <v>2.21645</v>
-      </c>
-      <c r="BH15" s="3">
+      <c r="BF15" s="4">
+        <v>5.2313000000000001</v>
+      </c>
+      <c r="BG15" s="5">
+        <v>1.6696899999999999</v>
+      </c>
+      <c r="BH15" s="5">
         <v>0.92159000000000002</v>
       </c>
-      <c r="BI15" s="2">
-        <v>6.7986000000000004</v>
-      </c>
-      <c r="BJ15" s="2">
-        <v>4.2192499999999997</v>
-      </c>
-      <c r="BK15" s="2">
-        <v>3.0885799999999999</v>
-      </c>
-      <c r="BL15" s="2">
-        <v>6.6686100000000001</v>
-      </c>
-      <c r="BM15" s="2">
-        <v>8.3308599999999995</v>
-      </c>
-      <c r="BN15" s="2">
-        <v>7.6117800000000004</v>
-      </c>
-      <c r="BO15" s="2">
-        <v>9.0845699999999994</v>
-      </c>
-      <c r="BP15" s="3">
+      <c r="BI15" s="4">
+        <v>8.7317199999999993</v>
+      </c>
+      <c r="BJ15" s="4">
+        <v>3.7204600000000001</v>
+      </c>
+      <c r="BK15" s="4">
+        <v>3.85148</v>
+      </c>
+      <c r="BL15" s="4">
+        <v>7.1966900000000003</v>
+      </c>
+      <c r="BM15" s="4">
+        <v>8.2138899999999992</v>
+      </c>
+      <c r="BN15" s="4">
+        <v>6.6560800000000002</v>
+      </c>
+      <c r="BO15" s="4">
+        <v>7.7871600000000001</v>
+      </c>
+      <c r="BP15" s="5">
         <v>0.99180999999999997</v>
       </c>
-      <c r="BQ15" s="2">
-        <v>6.4739800000000001</v>
-      </c>
-      <c r="BR15" s="2">
-        <v>1.50126</v>
-      </c>
-      <c r="BS15" s="2">
-        <v>6.65564</v>
-      </c>
-      <c r="BT15" s="2">
-        <v>2.8513899999999999</v>
-      </c>
-      <c r="BU15" s="2">
-        <v>11.17624</v>
-      </c>
-      <c r="BV15" s="3">
+      <c r="BQ15" s="4">
+        <v>3.45025</v>
+      </c>
+      <c r="BR15" s="5">
+        <v>1.1291800000000001</v>
+      </c>
+      <c r="BS15" s="4">
+        <v>6.4205300000000003</v>
+      </c>
+      <c r="BT15" s="4">
+        <v>3.9446099999999999</v>
+      </c>
+      <c r="BU15" s="4">
+        <v>9.7749100000000002</v>
+      </c>
+      <c r="BV15" s="5">
         <v>1.8282700000000001</v>
       </c>
-      <c r="BW15" s="3">
+      <c r="BW15" s="5">
         <v>0.92803000000000002</v>
       </c>
-      <c r="BX15" s="2">
-        <v>7.9254499999999997</v>
-      </c>
-      <c r="BY15" s="3">
+      <c r="BX15" s="4">
+        <v>6.0973199999999999</v>
+      </c>
+      <c r="BY15" s="5">
         <v>1.1127899999999999</v>
       </c>
-      <c r="BZ15" s="3">
+      <c r="BZ15" s="5">
         <v>0.83070999999999995</v>
       </c>
-      <c r="CA15" s="3">
+      <c r="CA15" s="5">
         <v>0.71570999999999996</v>
       </c>
-      <c r="CB15" s="2">
-        <v>8.8757099999999998</v>
-      </c>
-      <c r="CC15" s="2">
-        <v>3.8277399999999999</v>
-      </c>
-      <c r="CD15" s="2">
-        <v>4.0646599999999999</v>
-      </c>
-      <c r="CE15" s="2">
-        <v>4.6546200000000004</v>
-      </c>
-      <c r="CF15" s="2">
-        <v>4.7480599999999997</v>
-      </c>
-      <c r="CG15" s="2">
-        <v>1.39032</v>
-      </c>
-      <c r="CH15" s="2">
-        <v>8.7408900000000003</v>
-      </c>
-      <c r="CI15" s="2">
-        <v>5.4637700000000002</v>
-      </c>
-      <c r="CJ15" s="2">
-        <v>5.5136500000000002</v>
-      </c>
-      <c r="CK15" s="2">
-        <v>8.0868500000000001</v>
-      </c>
-      <c r="CL15" s="2">
-        <v>2.0654499999999998</v>
-      </c>
-      <c r="CM15" s="2">
-        <v>3.9321600000000001</v>
-      </c>
-      <c r="CN15" s="2">
-        <v>2.5042300000000002</v>
-      </c>
-      <c r="CO15" s="2">
-        <v>5.9447799999999997</v>
+      <c r="CB15" s="4">
+        <v>7.8081899999999997</v>
+      </c>
+      <c r="CC15" s="4">
+        <v>3.9549400000000001</v>
+      </c>
+      <c r="CD15" s="4">
+        <v>4.3291300000000001</v>
+      </c>
+      <c r="CE15" s="4">
+        <v>4.0634699999999997</v>
+      </c>
+      <c r="CF15" s="4">
+        <v>5.0395899999999996</v>
+      </c>
+      <c r="CG15" s="5">
+        <v>1.26908</v>
+      </c>
+      <c r="CH15" s="4">
+        <v>8.6027299999999993</v>
+      </c>
+      <c r="CI15" s="4">
+        <v>4.0101399999999998</v>
+      </c>
+      <c r="CJ15" s="4">
+        <v>4.4623999999999997</v>
+      </c>
+      <c r="CK15" s="4">
+        <v>5.00929</v>
+      </c>
+      <c r="CL15" s="5">
+        <v>1.7406600000000001</v>
+      </c>
+      <c r="CM15" s="4">
+        <v>2.4922800000000001</v>
+      </c>
+      <c r="CN15" s="4">
+        <v>2.7984800000000001</v>
+      </c>
+      <c r="CO15" s="4">
+        <v>6.0998099999999997</v>
       </c>
       <c r="CP15" t="s">
         <v>286</v>
       </c>
       <c r="CQ15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:95">
       <c r="A16" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B16" s="2">
-        <v>10.158770000000001</v>
+        <v>2.3890400000000001</v>
       </c>
       <c r="C16" s="2">
-        <v>7.4727499999999996</v>
-      </c>
-      <c r="E16" s="2">
-        <v>7.4537000000000004</v>
-      </c>
-      <c r="F16" s="2">
-        <v>7.3738299999999999</v>
+        <v>8.0275999999999996</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.64015</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.77817</v>
       </c>
       <c r="G16" s="2">
-        <v>5.9239600000000001</v>
+        <v>1.5354699999999999</v>
       </c>
       <c r="H16" s="2">
-        <v>7.4272499999999999</v>
+        <v>5.6791499999999999</v>
       </c>
       <c r="I16" s="2">
-        <v>6.1239100000000004</v>
+        <v>4.5099400000000003</v>
       </c>
       <c r="J16" s="2">
-        <v>8.5286899999999992</v>
+        <v>8.6995000000000005</v>
       </c>
       <c r="K16" s="2">
-        <v>6.2963199999999997</v>
+        <v>7.5098700000000003</v>
       </c>
       <c r="L16" s="2">
-        <v>8.7127300000000005</v>
+        <v>9.2407800000000009</v>
       </c>
       <c r="M16" s="2">
-        <v>10.038259999999999</v>
-      </c>
-      <c r="N16" s="2">
-        <v>8.3004899999999999</v>
+        <v>1.99051</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.5549299999999999</v>
       </c>
       <c r="O16" s="2">
-        <v>9.3532299999999999</v>
-      </c>
-      <c r="P16" s="2">
-        <v>6.5704200000000004</v>
+        <v>8.1010600000000004</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1.0474699999999999</v>
       </c>
       <c r="Q16" s="2">
-        <v>9.1646699999999992</v>
+        <v>8.6572800000000001</v>
       </c>
       <c r="R16" s="2">
-        <v>6.2262199999999996</v>
+        <v>7.39635</v>
       </c>
       <c r="S16" s="2">
-        <v>7.17774</v>
-      </c>
-      <c r="T16" s="2">
-        <v>6.3941800000000004</v>
+        <v>6.5392099999999997</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0.96518000000000004</v>
       </c>
       <c r="U16" s="2">
-        <v>6.9149000000000003</v>
+        <v>5.6234900000000003</v>
       </c>
       <c r="V16" s="2">
-        <v>5.8858800000000002</v>
-      </c>
-      <c r="W16" s="2">
-        <v>7.5102500000000001</v>
-      </c>
-      <c r="X16" s="2">
-        <v>3.80145</v>
+        <v>5.19747</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1.67276</v>
+      </c>
+      <c r="X16" s="3">
+        <v>-0.73333000000000004</v>
       </c>
       <c r="Y16" s="2">
-        <v>4.8563599999999996</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>5.9795199999999999</v>
+        <v>1.1449800000000001</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>1.7403200000000001</v>
       </c>
       <c r="AA16" s="2">
-        <v>9.2229299999999999</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>9.2211099999999995</v>
+        <v>9.2596299999999996</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>1.9816100000000001</v>
       </c>
       <c r="AC16" s="2">
-        <v>8.3966899999999995</v>
+        <v>5.0481600000000002</v>
       </c>
       <c r="AD16" s="2">
-        <v>7.4177499999999998</v>
+        <v>3.5706799999999999</v>
       </c>
       <c r="AE16" s="2">
-        <v>8.1916600000000006</v>
+        <v>8.8241099999999992</v>
       </c>
       <c r="AF16" s="2">
-        <v>6.0623300000000002</v>
+        <v>6.5130800000000004</v>
       </c>
       <c r="AG16" s="2">
-        <v>9.1206700000000005</v>
+        <v>1.70407</v>
       </c>
       <c r="AH16" s="2">
-        <v>6.2064899999999996</v>
+        <v>1.5643199999999999</v>
       </c>
       <c r="AI16" s="2">
-        <v>3.12277</v>
+        <v>4.62066</v>
       </c>
       <c r="AJ16" s="2">
-        <v>7.13347</v>
+        <v>6.0664400000000001</v>
       </c>
       <c r="AK16" s="2">
-        <v>5.5058299999999996</v>
+        <v>4.3881899999999998</v>
       </c>
       <c r="AL16" s="2">
-        <v>6.57064</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="AM16" s="2">
-        <v>5.57456</v>
-      </c>
-      <c r="AN16" s="2">
-        <v>5.6974900000000002</v>
+        <v>0.49991000000000002</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>1.2237499999999999</v>
       </c>
       <c r="AO16" s="2">
-        <v>10.532019999999999</v>
+        <v>14.24718</v>
       </c>
       <c r="AP16" s="2">
-        <v>4.6502100000000004</v>
+        <v>1.64514</v>
       </c>
       <c r="AQ16" s="2">
-        <v>5.2417499999999997</v>
+        <v>2.5803699999999998</v>
       </c>
       <c r="AR16" s="2">
-        <v>7.7904299999999997</v>
+        <v>7.4511900000000004</v>
       </c>
       <c r="AS16" s="2">
-        <v>4.2834199999999996</v>
+        <v>0.42118</v>
       </c>
       <c r="AT16" s="2">
-        <v>6.7729100000000004</v>
-      </c>
-      <c r="AU16" s="2">
-        <v>8.7543600000000001</v>
+        <v>5.1055000000000001</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>2.3804400000000001</v>
       </c>
       <c r="AV16" s="2">
-        <v>6.0541999999999998</v>
+        <v>5.0037399999999996</v>
       </c>
       <c r="AW16" s="2">
-        <v>8.0451899999999998</v>
+        <v>3.4083899999999998</v>
       </c>
       <c r="AX16" s="2">
-        <v>5.39635</v>
+        <v>1.0848</v>
       </c>
       <c r="AY16" s="2">
-        <v>10.5456</v>
+        <v>12.60385</v>
       </c>
       <c r="AZ16" s="2">
-        <v>7.3565100000000001</v>
+        <v>4.0495000000000001</v>
       </c>
       <c r="BA16" s="2">
-        <v>6.7207600000000003</v>
+        <v>6.5603400000000001</v>
       </c>
       <c r="BB16" s="2">
-        <v>3.4305500000000002</v>
-      </c>
-      <c r="BC16" s="2">
-        <v>9.7064699999999995</v>
-      </c>
-      <c r="BD16" s="2">
-        <v>6.1847399999999997</v>
-      </c>
-      <c r="BE16" s="2">
-        <v>5.1341099999999997</v>
+        <v>2.0788799999999998</v>
+      </c>
+      <c r="BC16" s="3">
+        <v>2.3016700000000001</v>
+      </c>
+      <c r="BD16" s="3">
+        <v>1.32935</v>
+      </c>
+      <c r="BE16" s="3">
+        <v>1.3167599999999999</v>
       </c>
       <c r="BF16" s="2">
-        <v>5.9257099999999996</v>
+        <v>5.7244900000000003</v>
       </c>
       <c r="BG16" s="2">
-        <v>6.2577100000000003</v>
-      </c>
-      <c r="BH16" s="2">
-        <v>7.2429300000000003</v>
+        <v>2.21645</v>
+      </c>
+      <c r="BH16" s="3">
+        <v>0.92159000000000002</v>
       </c>
       <c r="BI16" s="2">
-        <v>7.8703099999999999</v>
+        <v>6.7986000000000004</v>
       </c>
       <c r="BJ16" s="2">
-        <v>5.3787099999999999</v>
+        <v>4.2192499999999997</v>
       </c>
       <c r="BK16" s="2">
-        <v>8.0756599999999992</v>
+        <v>3.0885799999999999</v>
       </c>
       <c r="BL16" s="2">
-        <v>8.9649199999999993</v>
+        <v>6.6686100000000001</v>
       </c>
       <c r="BM16" s="2">
-        <v>7.9430699999999996</v>
+        <v>8.3308599999999995</v>
       </c>
       <c r="BN16" s="2">
-        <v>8.7584700000000009</v>
+        <v>7.6117800000000004</v>
       </c>
       <c r="BO16" s="2">
-        <v>6.3030999999999997</v>
-      </c>
-      <c r="BP16" s="2">
-        <v>6.1244800000000001</v>
+        <v>9.0845699999999994</v>
+      </c>
+      <c r="BP16" s="3">
+        <v>0.99180999999999997</v>
       </c>
       <c r="BQ16" s="2">
-        <v>6.0146199999999999</v>
+        <v>6.4739800000000001</v>
       </c>
       <c r="BR16" s="2">
-        <v>6.3564400000000001</v>
+        <v>1.50126</v>
       </c>
       <c r="BS16" s="2">
-        <v>6.6078400000000004</v>
+        <v>6.65564</v>
       </c>
       <c r="BT16" s="2">
-        <v>5.93649</v>
+        <v>2.8513899999999999</v>
       </c>
       <c r="BU16" s="2">
-        <v>8.8595600000000001</v>
-      </c>
-      <c r="BV16" s="2">
-        <v>6.8673400000000004</v>
-      </c>
-      <c r="BW16" s="2">
-        <v>6.3774600000000001</v>
+        <v>11.17624</v>
+      </c>
+      <c r="BV16" s="3">
+        <v>1.8282700000000001</v>
+      </c>
+      <c r="BW16" s="3">
+        <v>0.92803000000000002</v>
       </c>
       <c r="BX16" s="2">
-        <v>6.64602</v>
-      </c>
-      <c r="BY16" s="2">
-        <v>7.3281200000000002</v>
-      </c>
-      <c r="BZ16" s="2">
-        <v>7.0018399999999996</v>
-      </c>
-      <c r="CA16" s="2">
-        <v>6.7076700000000002</v>
+        <v>7.9254499999999997</v>
+      </c>
+      <c r="BY16" s="3">
+        <v>1.1127899999999999</v>
+      </c>
+      <c r="BZ16" s="3">
+        <v>0.83070999999999995</v>
+      </c>
+      <c r="CA16" s="3">
+        <v>0.71570999999999996</v>
       </c>
       <c r="CB16" s="2">
-        <v>8.1388599999999993</v>
+        <v>8.8757099999999998</v>
       </c>
       <c r="CC16" s="2">
-        <v>4.6814900000000002</v>
+        <v>3.8277399999999999</v>
       </c>
       <c r="CD16" s="2">
-        <v>6.4156700000000004</v>
+        <v>4.0646599999999999</v>
       </c>
       <c r="CE16" s="2">
-        <v>8.4468200000000007</v>
+        <v>4.6546200000000004</v>
       </c>
       <c r="CF16" s="2">
-        <v>7.7824900000000001</v>
+        <v>4.7480599999999997</v>
       </c>
       <c r="CG16" s="2">
-        <v>6.5670400000000004</v>
+        <v>1.39032</v>
       </c>
       <c r="CH16" s="2">
-        <v>9.1699900000000003</v>
+        <v>8.7408900000000003</v>
       </c>
       <c r="CI16" s="2">
-        <v>8.5052800000000008</v>
+        <v>5.4637700000000002</v>
       </c>
       <c r="CJ16" s="2">
-        <v>5.9825299999999997</v>
+        <v>5.5136500000000002</v>
       </c>
       <c r="CK16" s="2">
-        <v>5.9964899999999997</v>
+        <v>8.0868500000000001</v>
       </c>
       <c r="CL16" s="2">
-        <v>6.9250800000000003</v>
+        <v>2.0654499999999998</v>
       </c>
       <c r="CM16" s="2">
-        <v>6.49444</v>
+        <v>3.9321600000000001</v>
       </c>
       <c r="CN16" s="2">
-        <v>6.3431699999999998</v>
+        <v>2.5042300000000002</v>
       </c>
       <c r="CO16" s="2">
-        <v>5.9912700000000001</v>
+        <v>5.9447799999999997</v>
       </c>
       <c r="CP16" t="s">
         <v>286</v>
@@ -4835,9 +4851,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:95">
       <c r="A17" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17" s="2">
         <v>10.158770000000001</v>
@@ -5119,565 +5135,1134 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:95">
+      <c r="A18" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10.158770000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7.4727499999999996</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.4537000000000004</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7.3738299999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5.9239600000000001</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7.4272499999999999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>6.1239100000000004</v>
+      </c>
+      <c r="J18" s="2">
+        <v>8.5286899999999992</v>
+      </c>
+      <c r="K18" s="2">
+        <v>6.2963199999999997</v>
+      </c>
+      <c r="L18" s="2">
+        <v>8.7127300000000005</v>
+      </c>
+      <c r="M18" s="2">
+        <v>10.038259999999999</v>
+      </c>
+      <c r="N18" s="2">
+        <v>8.3004899999999999</v>
+      </c>
+      <c r="O18" s="2">
+        <v>9.3532299999999999</v>
+      </c>
+      <c r="P18" s="2">
+        <v>6.5704200000000004</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>9.1646699999999992</v>
+      </c>
+      <c r="R18" s="2">
+        <v>6.2262199999999996</v>
+      </c>
+      <c r="S18" s="2">
+        <v>7.17774</v>
+      </c>
+      <c r="T18" s="2">
+        <v>6.3941800000000004</v>
+      </c>
+      <c r="U18" s="2">
+        <v>6.9149000000000003</v>
+      </c>
+      <c r="V18" s="2">
+        <v>5.8858800000000002</v>
+      </c>
+      <c r="W18" s="2">
+        <v>7.5102500000000001</v>
+      </c>
+      <c r="X18" s="2">
+        <v>3.80145</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>4.8563599999999996</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>5.9795199999999999</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>9.2229299999999999</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>9.2211099999999995</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>8.3966899999999995</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>7.4177499999999998</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>8.1916600000000006</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>6.0623300000000002</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>9.1206700000000005</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>6.2064899999999996</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>3.12277</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>7.13347</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>5.5058299999999996</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>6.57064</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>5.57456</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>5.6974900000000002</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>10.532019999999999</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>4.6502100000000004</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>5.2417499999999997</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>7.7904299999999997</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>4.2834199999999996</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>6.7729100000000004</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>8.7543600000000001</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>6.0541999999999998</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>8.0451899999999998</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>5.39635</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>10.5456</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>7.3565100000000001</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>6.7207600000000003</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>3.4305500000000002</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>9.7064699999999995</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>6.1847399999999997</v>
+      </c>
+      <c r="BE18" s="2">
+        <v>5.1341099999999997</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>5.9257099999999996</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>6.2577100000000003</v>
+      </c>
+      <c r="BH18" s="2">
+        <v>7.2429300000000003</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>7.8703099999999999</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>5.3787099999999999</v>
+      </c>
+      <c r="BK18" s="2">
+        <v>8.0756599999999992</v>
+      </c>
+      <c r="BL18" s="2">
+        <v>8.9649199999999993</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>7.9430699999999996</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>8.7584700000000009</v>
+      </c>
+      <c r="BO18" s="2">
+        <v>6.3030999999999997</v>
+      </c>
+      <c r="BP18" s="2">
+        <v>6.1244800000000001</v>
+      </c>
+      <c r="BQ18" s="2">
+        <v>6.0146199999999999</v>
+      </c>
+      <c r="BR18" s="2">
+        <v>6.3564400000000001</v>
+      </c>
+      <c r="BS18" s="2">
+        <v>6.6078400000000004</v>
+      </c>
+      <c r="BT18" s="2">
+        <v>5.93649</v>
+      </c>
+      <c r="BU18" s="2">
+        <v>8.8595600000000001</v>
+      </c>
+      <c r="BV18" s="2">
+        <v>6.8673400000000004</v>
+      </c>
+      <c r="BW18" s="2">
+        <v>6.3774600000000001</v>
+      </c>
+      <c r="BX18" s="2">
+        <v>6.64602</v>
+      </c>
+      <c r="BY18" s="2">
+        <v>7.3281200000000002</v>
+      </c>
+      <c r="BZ18" s="2">
+        <v>7.0018399999999996</v>
+      </c>
+      <c r="CA18" s="2">
+        <v>6.7076700000000002</v>
+      </c>
+      <c r="CB18" s="2">
+        <v>8.1388599999999993</v>
+      </c>
+      <c r="CC18" s="2">
+        <v>4.6814900000000002</v>
+      </c>
+      <c r="CD18" s="2">
+        <v>6.4156700000000004</v>
+      </c>
+      <c r="CE18" s="2">
+        <v>8.4468200000000007</v>
+      </c>
+      <c r="CF18" s="2">
+        <v>7.7824900000000001</v>
+      </c>
+      <c r="CG18" s="2">
+        <v>6.5670400000000004</v>
+      </c>
+      <c r="CH18" s="2">
+        <v>9.1699900000000003</v>
+      </c>
+      <c r="CI18" s="2">
+        <v>8.5052800000000008</v>
+      </c>
+      <c r="CJ18" s="2">
+        <v>5.9825299999999997</v>
+      </c>
+      <c r="CK18" s="2">
+        <v>5.9964899999999997</v>
+      </c>
+      <c r="CL18" s="2">
+        <v>6.9250800000000003</v>
+      </c>
+      <c r="CM18" s="2">
+        <v>6.49444</v>
+      </c>
+      <c r="CN18" s="2">
+        <v>6.3431699999999998</v>
+      </c>
+      <c r="CO18" s="2">
+        <v>5.9912700000000001</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>287</v>
+      </c>
     </row>
-    <row r="19" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:95">
+      <c r="A19" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="14">
+        <v>5.3890399999999996</v>
+      </c>
+      <c r="C19" s="14">
+        <v>8.0275999999999996</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15">
+        <v>1.64015</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1.77817</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1.5354699999999999</v>
+      </c>
+      <c r="H19" s="14">
+        <v>5.6791499999999999</v>
+      </c>
+      <c r="I19" s="14">
+        <v>4.5099400000000003</v>
+      </c>
+      <c r="J19" s="14">
+        <v>8.6995000000000005</v>
+      </c>
+      <c r="K19" s="14">
+        <v>7.5098700000000003</v>
+      </c>
+      <c r="L19" s="14">
+        <v>9.2407800000000009</v>
+      </c>
+      <c r="M19" s="14">
+        <v>1.99051</v>
+      </c>
+      <c r="N19" s="15">
+        <v>1.5549299999999999</v>
+      </c>
+      <c r="O19" s="14">
+        <v>8.1010600000000004</v>
+      </c>
+      <c r="P19" s="15">
+        <v>1.0474699999999999</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>8.6572800000000001</v>
+      </c>
+      <c r="R19" s="14">
+        <v>7.39635</v>
+      </c>
+      <c r="S19" s="14">
+        <v>6.5392099999999997</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0.96518000000000004</v>
+      </c>
+      <c r="U19" s="14">
+        <v>5.6234900000000003</v>
+      </c>
+      <c r="V19" s="14">
+        <v>5.19747</v>
+      </c>
+      <c r="W19" s="15">
+        <v>1.67276</v>
+      </c>
+      <c r="X19" s="15">
+        <v>-0.73333000000000004</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>1.1449800000000001</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>1.7403200000000001</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>9.2596299999999996</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>1.9816100000000001</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>5.0481600000000002</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>3.5706799999999999</v>
+      </c>
+      <c r="AE19" s="14">
+        <v>8.8241099999999992</v>
+      </c>
+      <c r="AF19" s="14">
+        <v>6.5130800000000004</v>
+      </c>
+      <c r="AG19" s="14">
+        <v>1.70407</v>
+      </c>
+      <c r="AH19" s="14">
+        <v>1.5643199999999999</v>
+      </c>
+      <c r="AI19" s="14">
+        <v>4.62066</v>
+      </c>
+      <c r="AJ19" s="14">
+        <v>6.0664400000000001</v>
+      </c>
+      <c r="AK19" s="14">
+        <v>4.3881899999999998</v>
+      </c>
+      <c r="AL19" s="14">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="AM19" s="14">
+        <v>0.49991000000000002</v>
+      </c>
+      <c r="AN19" s="15">
+        <v>1.2237499999999999</v>
+      </c>
+      <c r="AO19" s="14">
+        <v>14.24718</v>
+      </c>
+      <c r="AP19" s="14">
+        <v>1.64514</v>
+      </c>
+      <c r="AQ19" s="14">
+        <v>2.5803699999999998</v>
+      </c>
+      <c r="AR19" s="14">
+        <v>7.4511900000000004</v>
+      </c>
+      <c r="AS19" s="14">
+        <v>0.42118</v>
+      </c>
+      <c r="AT19" s="14">
+        <v>5.1055000000000001</v>
+      </c>
+      <c r="AU19" s="15">
+        <v>2.3804400000000001</v>
+      </c>
+      <c r="AV19" s="14">
+        <v>5.0037399999999996</v>
+      </c>
+      <c r="AW19" s="14">
+        <v>3.4083899999999998</v>
+      </c>
+      <c r="AX19" s="14">
+        <v>1.0848</v>
+      </c>
+      <c r="AY19" s="14">
+        <v>12.60385</v>
+      </c>
+      <c r="AZ19" s="14">
+        <v>4.0495000000000001</v>
+      </c>
+      <c r="BA19" s="14">
+        <v>6.5603400000000001</v>
+      </c>
+      <c r="BB19" s="14">
+        <v>2.0788799999999998</v>
+      </c>
+      <c r="BC19" s="15">
+        <v>2.3016700000000001</v>
+      </c>
+      <c r="BD19" s="15">
+        <v>1.32935</v>
+      </c>
+      <c r="BE19" s="15">
+        <v>1.3167599999999999</v>
+      </c>
+      <c r="BF19" s="14">
+        <v>5.7244900000000003</v>
+      </c>
+      <c r="BG19" s="14">
+        <v>2.21645</v>
+      </c>
+      <c r="BH19" s="15">
+        <v>0.92159000000000002</v>
+      </c>
+      <c r="BI19" s="14">
+        <v>6.7986000000000004</v>
+      </c>
+      <c r="BJ19" s="14">
+        <v>4.2192499999999997</v>
+      </c>
+      <c r="BK19" s="14">
+        <v>3.0885799999999999</v>
+      </c>
+      <c r="BL19" s="14">
+        <v>6.6686100000000001</v>
+      </c>
+      <c r="BM19" s="14">
+        <v>8.3308599999999995</v>
+      </c>
+      <c r="BN19" s="14">
+        <v>7.6117800000000004</v>
+      </c>
+      <c r="BO19" s="14">
+        <v>9.0845699999999994</v>
+      </c>
+      <c r="BP19" s="15">
+        <v>0.99180999999999997</v>
+      </c>
+      <c r="BQ19" s="14">
+        <v>6.4739800000000001</v>
+      </c>
+      <c r="BR19" s="14">
+        <v>1.50126</v>
+      </c>
+      <c r="BS19" s="14">
+        <v>6.65564</v>
+      </c>
+      <c r="BT19" s="14">
+        <v>2.8513899999999999</v>
+      </c>
+      <c r="BU19" s="14">
+        <v>11.17624</v>
+      </c>
+      <c r="BV19" s="15">
+        <v>1.8282700000000001</v>
+      </c>
+      <c r="BW19" s="15">
+        <v>0.92803000000000002</v>
+      </c>
+      <c r="BX19" s="14">
+        <v>7.9254499999999997</v>
+      </c>
+      <c r="BY19" s="15">
+        <v>1.1127899999999999</v>
+      </c>
+      <c r="BZ19" s="15">
+        <v>0.83070999999999995</v>
+      </c>
+      <c r="CA19" s="15">
+        <v>0.71570999999999996</v>
+      </c>
+      <c r="CB19" s="14">
+        <v>8.8757099999999998</v>
+      </c>
+      <c r="CC19" s="14">
+        <v>3.8277399999999999</v>
+      </c>
+      <c r="CD19" s="14">
+        <v>4.0646599999999999</v>
+      </c>
+      <c r="CE19" s="14">
+        <v>4.6546200000000004</v>
+      </c>
+      <c r="CF19" s="14">
+        <v>4.7480599999999997</v>
+      </c>
+      <c r="CG19" s="14">
+        <v>1.39032</v>
+      </c>
+      <c r="CH19" s="14">
+        <v>8.7408900000000003</v>
+      </c>
+      <c r="CI19" s="14">
+        <v>5.4637700000000002</v>
+      </c>
+      <c r="CJ19" s="14">
+        <v>5.5136500000000002</v>
+      </c>
+      <c r="CK19" s="14">
+        <v>8.0868500000000001</v>
+      </c>
+      <c r="CL19" s="14">
+        <v>2.0654499999999998</v>
+      </c>
+      <c r="CM19" s="14">
+        <v>3.9321600000000001</v>
+      </c>
+      <c r="CN19" s="14">
+        <v>2.5042300000000002</v>
+      </c>
+      <c r="CO19" s="14">
+        <v>5.9447799999999997</v>
+      </c>
+      <c r="CP19" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="CQ19" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:95">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:95">
+      <c r="A21" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B21" s="2">
         <v>1.2452799999999999</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C21" s="2">
         <v>1.73102</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E21" s="2">
         <v>1.64015</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F21" s="2">
         <v>1.77817</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G21" s="2">
         <v>0.56850000000000001</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H21" s="2">
         <v>1.76467</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I21" s="2">
         <v>0.79384999999999994</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J21" s="2">
         <v>0.73258000000000001</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K21" s="2">
         <v>1.22241</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L21" s="2">
         <v>1.2118100000000001</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M21" s="2">
         <v>1.1236699999999999</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N21" s="2">
         <v>1.5549299999999999</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O21" s="2">
         <v>1.11277</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P21" s="2">
         <v>1.0474699999999999</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q21" s="2">
         <v>0.99802000000000002</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R21" s="2">
         <v>1.3523400000000001</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S21" s="2">
         <v>1.0710900000000001</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T21" s="2">
         <v>0.96518000000000004</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U21" s="2">
         <v>0.94247000000000003</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V21" s="2">
         <v>-1.06471</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W21" s="2">
         <v>1.67276</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X21" s="2">
         <v>-0.73333000000000004</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y21" s="2">
         <v>0.73509000000000002</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z21" s="2">
         <v>1.7403200000000001</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA21" s="2">
         <v>2.56996</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AB21" s="2">
         <v>1.9816100000000001</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AC21" s="2">
         <v>1.64662</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD21" s="2">
         <v>1.1802600000000001</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AE21" s="2">
         <v>1.7056500000000001</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AF21" s="2">
         <v>1.34832</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AG21" s="2">
         <v>0.95889999999999997</v>
       </c>
-      <c r="AH19" s="2">
+      <c r="AH21" s="2">
         <v>1.1231899999999999</v>
       </c>
-      <c r="AI19" s="2">
+      <c r="AI21" s="2">
         <v>-0.39773999999999998</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AJ21" s="2">
         <v>0.92922000000000005</v>
       </c>
-      <c r="AK19" s="2">
+      <c r="AK21" s="2">
         <v>1.2955399999999999</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AL21" s="2">
         <v>1.6230800000000001</v>
       </c>
-      <c r="AM19" s="2">
+      <c r="AM21" s="2">
         <v>0.37853999999999999</v>
       </c>
-      <c r="AN19" s="2">
+      <c r="AN21" s="2">
         <v>1.2237499999999999</v>
       </c>
-      <c r="AO19" s="2">
+      <c r="AO21" s="2">
         <v>1.11005</v>
       </c>
-      <c r="AP19" s="2">
+      <c r="AP21" s="2">
         <v>1.1332500000000001</v>
       </c>
-      <c r="AQ19" s="2">
+      <c r="AQ21" s="2">
         <v>0.82589000000000001</v>
       </c>
-      <c r="AR19" s="2">
+      <c r="AR21" s="2">
         <v>1.4808399999999999</v>
       </c>
-      <c r="AS19" s="2">
+      <c r="AS21" s="2">
         <v>0.33593000000000001</v>
       </c>
-      <c r="AT19" s="2">
+      <c r="AT21" s="2">
         <v>0.68486000000000002</v>
       </c>
-      <c r="AU19" s="2">
+      <c r="AU21" s="2">
         <v>2.3804400000000001</v>
       </c>
-      <c r="AV19" s="2">
+      <c r="AV21" s="2">
         <v>1.5673699999999999</v>
       </c>
-      <c r="AW19" s="2">
+      <c r="AW21" s="2">
         <v>2.2438500000000001</v>
       </c>
-      <c r="AX19" s="2">
+      <c r="AX21" s="2">
         <v>0.68201999999999996</v>
       </c>
-      <c r="AY19" s="2">
+      <c r="AY21" s="2">
         <v>1.80481</v>
       </c>
-      <c r="AZ19" s="2">
+      <c r="AZ21" s="2">
         <v>1.67354</v>
       </c>
-      <c r="BA19" s="2">
+      <c r="BA21" s="2">
         <v>1.2162599999999999</v>
       </c>
-      <c r="BB19" s="2">
+      <c r="BB21" s="2">
         <v>0.36577999999999999</v>
       </c>
-      <c r="BC19" s="2">
+      <c r="BC21" s="2">
         <v>2.3016700000000001</v>
       </c>
-      <c r="BD19" s="2">
+      <c r="BD21" s="2">
         <v>1.32935</v>
       </c>
-      <c r="BE19" s="2">
+      <c r="BE21" s="2">
         <v>1.3167599999999999</v>
       </c>
-      <c r="BF19" s="2">
+      <c r="BF21" s="2">
         <v>0.98580000000000001</v>
       </c>
-      <c r="BG19" s="2">
+      <c r="BG21" s="2">
         <v>1.6696899999999999</v>
       </c>
-      <c r="BH19" s="2">
+      <c r="BH21" s="2">
         <v>0.92159000000000002</v>
       </c>
-      <c r="BI19" s="2">
+      <c r="BI21" s="2">
         <v>1.08039</v>
       </c>
-      <c r="BJ19" s="2">
+      <c r="BJ21" s="2">
         <v>0.75095000000000001</v>
       </c>
-      <c r="BK19" s="2">
+      <c r="BK21" s="2">
         <v>1.3260799999999999</v>
       </c>
-      <c r="BL19" s="2">
+      <c r="BL21" s="2">
         <v>2.1433499999999999</v>
       </c>
-      <c r="BM19" s="2">
+      <c r="BM21" s="2">
         <v>0.89825999999999995</v>
       </c>
-      <c r="BN19" s="2">
+      <c r="BN21" s="2">
         <v>2.4283100000000002</v>
       </c>
-      <c r="BO19" s="2">
+      <c r="BO21" s="2">
         <v>1.12523</v>
       </c>
-      <c r="BP19" s="2">
+      <c r="BP21" s="2">
         <v>0.99180999999999997</v>
       </c>
-      <c r="BQ19" s="2">
+      <c r="BQ21" s="2">
         <v>2.07457</v>
       </c>
-      <c r="BR19" s="2">
+      <c r="BR21" s="2">
         <v>1.1291800000000001</v>
       </c>
-      <c r="BS19" s="2">
+      <c r="BS21" s="2">
         <v>0.65888999999999998</v>
       </c>
-      <c r="BT19" s="2">
+      <c r="BT21" s="2">
         <v>0.68162999999999996</v>
       </c>
-      <c r="BU19" s="2">
+      <c r="BU21" s="2">
         <v>1.9415</v>
       </c>
-      <c r="BV19" s="2">
+      <c r="BV21" s="2">
         <v>1.8282700000000001</v>
       </c>
-      <c r="BW19" s="2">
+      <c r="BW21" s="2">
         <v>0.92803000000000002</v>
       </c>
-      <c r="BX19" s="2">
+      <c r="BX21" s="2">
         <v>1.3465199999999999</v>
       </c>
-      <c r="BY19" s="2">
+      <c r="BY21" s="2">
         <v>1.1127899999999999</v>
       </c>
-      <c r="BZ19" s="2">
+      <c r="BZ21" s="2">
         <v>0.83070999999999995</v>
       </c>
-      <c r="CA19" s="2">
+      <c r="CA21" s="2">
         <v>0.71570999999999996</v>
       </c>
-      <c r="CB19" s="2">
+      <c r="CB21" s="2">
         <v>1.8677600000000001</v>
       </c>
-      <c r="CC19" s="2">
+      <c r="CC21" s="2">
         <v>1.6599900000000001</v>
       </c>
-      <c r="CD19" s="2">
+      <c r="CD21" s="2">
         <v>0.65619000000000005</v>
       </c>
-      <c r="CE19" s="2">
+      <c r="CE21" s="2">
         <v>1.6655899999999999</v>
       </c>
-      <c r="CF19" s="2">
+      <c r="CF21" s="2">
         <v>1.9583999999999999</v>
       </c>
-      <c r="CG19" s="2">
+      <c r="CG21" s="2">
         <v>1.26908</v>
       </c>
-      <c r="CH19" s="2">
+      <c r="CH21" s="2">
         <v>1.97288</v>
       </c>
-      <c r="CI19" s="2">
+      <c r="CI21" s="2">
         <v>1.7742500000000001</v>
       </c>
-      <c r="CJ19" s="2">
+      <c r="CJ21" s="2">
         <v>0.85163</v>
       </c>
-      <c r="CK19" s="2">
+      <c r="CK21" s="2">
         <v>1.5718799999999999</v>
       </c>
-      <c r="CL19" s="2">
+      <c r="CL21" s="2">
         <v>1.7406600000000001</v>
       </c>
-      <c r="CM19" s="2">
+      <c r="CM21" s="2">
         <v>1.2820499999999999</v>
       </c>
-      <c r="CN19" s="2">
+      <c r="CN21" s="2">
         <v>1.3283700000000001</v>
       </c>
-      <c r="CO19" s="2">
+      <c r="CO21" s="2">
         <v>1.49448</v>
       </c>
     </row>
-    <row r="20" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="22" spans="1:95">
+      <c r="A22" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B22" s="6">
         <v>0</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E22" s="6">
         <v>0.25</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F22" s="6">
         <v>0.75</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G22" s="6">
         <v>0</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H22" s="6">
         <v>0</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I22" s="6">
         <v>0</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J22" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K22" s="6">
         <v>0</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L22" s="6">
         <v>0</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M22" s="6">
         <v>0</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N22" s="6">
         <v>0.5</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O22" s="6">
         <v>0</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P22" s="6">
         <v>0.75</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q22" s="6">
         <v>0</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R22" s="6">
         <v>0</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S22" s="6">
         <v>0</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T22" s="6">
         <v>0.75</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U22" s="6">
         <v>0</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V22" s="6">
         <v>0</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W22" s="6">
         <v>0.75</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X22" s="6">
         <v>0.75</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y22" s="6">
         <v>0</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z22" s="6">
         <v>0.75</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA22" s="6">
         <v>0</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB22" s="6">
         <v>0.75</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AC22" s="6">
         <v>0</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AD22" s="6">
         <v>0</v>
       </c>
-      <c r="AE20" s="6">
+      <c r="AE22" s="6">
         <v>0</v>
       </c>
-      <c r="AF20" s="6">
+      <c r="AF22" s="6">
         <v>0</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AG22" s="6">
         <v>0.25</v>
       </c>
-      <c r="AH20" s="6">
+      <c r="AH22" s="6">
         <v>0</v>
       </c>
-      <c r="AI20" s="6">
+      <c r="AI22" s="6">
         <v>0</v>
       </c>
-      <c r="AJ20" s="6">
+      <c r="AJ22" s="6">
         <v>0</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AK22" s="6">
         <v>0</v>
       </c>
-      <c r="AL20" s="6">
+      <c r="AL22" s="6">
         <v>0.25</v>
       </c>
-      <c r="AM20" s="6">
+      <c r="AM22" s="6">
         <v>0.5</v>
       </c>
-      <c r="AN20" s="6">
+      <c r="AN22" s="6">
         <v>0.75</v>
       </c>
-      <c r="AO20" s="6">
+      <c r="AO22" s="6">
         <v>0</v>
       </c>
-      <c r="AP20" s="6">
+      <c r="AP22" s="6">
         <v>0</v>
       </c>
-      <c r="AQ20" s="6">
+      <c r="AQ22" s="6">
         <v>0</v>
       </c>
-      <c r="AR20" s="6">
+      <c r="AR22" s="6">
         <v>0</v>
       </c>
-      <c r="AS20" s="6">
+      <c r="AS22" s="6">
         <v>0.5</v>
       </c>
-      <c r="AT20" s="6">
+      <c r="AT22" s="6">
         <v>0</v>
       </c>
-      <c r="AU20" s="6">
+      <c r="AU22" s="6">
         <v>0.75</v>
       </c>
-      <c r="AV20" s="6">
+      <c r="AV22" s="6">
         <v>0</v>
       </c>
-      <c r="AW20" s="6">
+      <c r="AW22" s="6">
         <v>0</v>
       </c>
-      <c r="AX20" s="6">
+      <c r="AX22" s="6">
         <v>0</v>
       </c>
-      <c r="AY20" s="6">
+      <c r="AY22" s="6">
         <v>0</v>
       </c>
-      <c r="AZ20" s="6">
+      <c r="AZ22" s="6">
         <v>0</v>
       </c>
-      <c r="BA20" s="6">
+      <c r="BA22" s="6">
         <v>0</v>
       </c>
-      <c r="BB20" s="6">
+      <c r="BB22" s="6">
         <v>0</v>
       </c>
-      <c r="BC20" s="6">
+      <c r="BC22" s="6">
         <v>0.75</v>
       </c>
-      <c r="BD20" s="6">
+      <c r="BD22" s="6">
         <v>0.75</v>
       </c>
-      <c r="BE20" s="6">
+      <c r="BE22" s="6">
         <v>0.75</v>
       </c>
-      <c r="BF20" s="6">
+      <c r="BF22" s="6">
         <v>0</v>
       </c>
-      <c r="BG20" s="6">
+      <c r="BG22" s="6">
         <v>0.25</v>
       </c>
-      <c r="BH20" s="6">
+      <c r="BH22" s="6">
         <v>0.75</v>
       </c>
-      <c r="BI20" s="6">
+      <c r="BI22" s="6">
         <v>0</v>
       </c>
-      <c r="BJ20" s="6">
+      <c r="BJ22" s="6">
         <v>0</v>
       </c>
-      <c r="BK20" s="6">
+      <c r="BK22" s="6">
         <v>0</v>
       </c>
-      <c r="BL20" s="6">
+      <c r="BL22" s="6">
         <v>0</v>
       </c>
-      <c r="BM20" s="6">
+      <c r="BM22" s="6">
         <v>0</v>
       </c>
-      <c r="BN20" s="6">
+      <c r="BN22" s="6">
         <v>0</v>
       </c>
-      <c r="BO20" s="6">
+      <c r="BO22" s="6">
         <v>0</v>
       </c>
-      <c r="BP20" s="6">
+      <c r="BP22" s="6">
         <v>0.75</v>
       </c>
-      <c r="BQ20" s="6">
+      <c r="BQ22" s="6">
         <v>0</v>
       </c>
-      <c r="BR20" s="6">
+      <c r="BR22" s="6">
         <v>0.5</v>
       </c>
-      <c r="BS20" s="6">
+      <c r="BS22" s="6">
         <v>0</v>
       </c>
-      <c r="BT20" s="6">
+      <c r="BT22" s="6">
         <v>0</v>
       </c>
-      <c r="BU20" s="6">
+      <c r="BU22" s="6">
         <v>0</v>
       </c>
-      <c r="BV20" s="6">
+      <c r="BV22" s="6">
         <v>0.75</v>
       </c>
-      <c r="BW20" s="6">
+      <c r="BW22" s="6">
         <v>0.75</v>
       </c>
-      <c r="BX20" s="6">
+      <c r="BX22" s="6">
         <v>0</v>
       </c>
-      <c r="BY20" s="6">
+      <c r="BY22" s="6">
         <v>0.75</v>
       </c>
-      <c r="BZ20" s="6">
+      <c r="BZ22" s="6">
         <v>0.75</v>
       </c>
-      <c r="CA20" s="6">
+      <c r="CA22" s="6">
         <v>0.75</v>
       </c>
-      <c r="CB20" s="6">
+      <c r="CB22" s="6">
         <v>0</v>
       </c>
-      <c r="CC20" s="6">
+      <c r="CC22" s="6">
         <v>0</v>
       </c>
-      <c r="CD20" s="6">
+      <c r="CD22" s="6">
         <v>0</v>
       </c>
-      <c r="CE20" s="6">
+      <c r="CE22" s="6">
         <v>0</v>
       </c>
-      <c r="CF20" s="6">
+      <c r="CF22" s="6">
         <v>0</v>
       </c>
-      <c r="CG20" s="6">
+      <c r="CG22" s="6">
         <v>0.25</v>
       </c>
-      <c r="CH20" s="6">
+      <c r="CH22" s="6">
         <v>0</v>
       </c>
-      <c r="CI20" s="6">
+      <c r="CI22" s="6">
         <v>0</v>
       </c>
-      <c r="CJ20" s="6">
+      <c r="CJ22" s="6">
         <v>0</v>
       </c>
-      <c r="CK20" s="6">
+      <c r="CK22" s="6">
         <v>0</v>
       </c>
-      <c r="CL20" s="6">
+      <c r="CL22" s="6">
         <v>0.5</v>
       </c>
-      <c r="CM20" s="6">
+      <c r="CM22" s="6">
         <v>0</v>
       </c>
-      <c r="CN20" s="6">
+      <c r="CN22" s="6">
         <v>0</v>
       </c>
-      <c r="CO20" s="6">
+      <c r="CO22" s="6">
         <v>0</v>
       </c>
     </row>
